--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -173,6 +173,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,13 +1241,13 @@
       </c>
     </row>
     <row r="2" spans="1:247" ht="120" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1256,13 +1265,13 @@
       </c>
     </row>
     <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1272,13 +1281,13 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1298,13 +1307,13 @@
       </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -182,6 +182,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +491,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,10 +1287,10 @@
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -184,6 +190,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1253,7 @@
       </c>
     </row>
     <row r="2" spans="1:247" ht="120" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -499,8 +499,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
@@ -1302,7 +1302,7 @@
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1328,7 +1328,7 @@
       <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -499,8 +499,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1293,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,41 +158,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,868 +542,1819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IM8"/>
+  <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="247" width="50.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="57" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="247" width="50.7109375" style="18" customWidth="1"/>
+    <col min="248" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:247" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="1">
         <v>41558</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="1">
         <v>41559</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="1">
         <v>41560</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="1">
         <v>41561</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="1">
         <v>41562</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="1">
         <v>41563</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="1">
         <v>41564</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="1">
         <v>41565</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="1">
         <v>41566</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="1">
         <v>41567</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="1">
         <v>41568</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="1">
         <v>41569</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="1">
         <v>41570</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="1">
         <v>41571</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="1">
         <v>41572</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="1">
         <v>41573</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="1">
         <v>41574</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="1">
         <v>41575</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="1">
         <v>41576</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="1">
         <v>41577</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="1">
         <v>41578</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="1">
         <v>41579</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="1">
         <v>41580</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="1">
         <v>41581</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="1">
         <v>41582</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="1">
         <v>41583</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="1">
         <v>41584</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="1">
         <v>41585</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="1">
         <v>41586</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="1">
         <v>41587</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="1">
         <v>41588</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AG1" s="1">
         <v>41589</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="1">
         <v>41590</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AI1" s="1">
         <v>41591</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AJ1" s="1">
         <v>41592</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AK1" s="1">
         <v>41593</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AL1" s="1">
         <v>41594</v>
       </c>
-      <c r="AM1" s="8">
+      <c r="AM1" s="1">
         <v>41595</v>
       </c>
-      <c r="AN1" s="8">
+      <c r="AN1" s="1">
         <v>41596</v>
       </c>
-      <c r="AO1" s="8">
+      <c r="AO1" s="1">
         <v>41597</v>
       </c>
-      <c r="AP1" s="8">
+      <c r="AP1" s="1">
         <v>41598</v>
       </c>
-      <c r="AQ1" s="8">
+      <c r="AQ1" s="1">
         <v>41599</v>
       </c>
-      <c r="AR1" s="8">
+      <c r="AR1" s="1">
         <v>41600</v>
       </c>
-      <c r="AS1" s="8">
+      <c r="AS1" s="1">
         <v>41601</v>
       </c>
-      <c r="AT1" s="8">
+      <c r="AT1" s="1">
         <v>41602</v>
       </c>
-      <c r="AU1" s="8">
+      <c r="AU1" s="1">
         <v>41603</v>
       </c>
-      <c r="AV1" s="8">
+      <c r="AV1" s="1">
         <v>41604</v>
       </c>
-      <c r="AW1" s="8">
+      <c r="AW1" s="1">
         <v>41605</v>
       </c>
-      <c r="AX1" s="8">
+      <c r="AX1" s="1">
         <v>41606</v>
       </c>
-      <c r="AY1" s="8">
+      <c r="AY1" s="1">
         <v>41607</v>
       </c>
-      <c r="AZ1" s="8">
+      <c r="AZ1" s="1">
         <v>41608</v>
       </c>
-      <c r="BA1" s="8">
+      <c r="BA1" s="1">
         <v>41609</v>
       </c>
-      <c r="BB1" s="8">
+      <c r="BB1" s="1">
         <v>41610</v>
       </c>
-      <c r="BC1" s="8">
+      <c r="BC1" s="1">
         <v>41611</v>
       </c>
-      <c r="BD1" s="8">
+      <c r="BD1" s="1">
         <v>41612</v>
       </c>
-      <c r="BE1" s="8">
+      <c r="BE1" s="1">
         <v>41613</v>
       </c>
-      <c r="BF1" s="8">
+      <c r="BF1" s="1">
         <v>41614</v>
       </c>
-      <c r="BG1" s="8">
+      <c r="BG1" s="1">
         <v>41615</v>
       </c>
-      <c r="BH1" s="8">
+      <c r="BH1" s="1">
         <v>41616</v>
       </c>
-      <c r="BI1" s="8">
+      <c r="BI1" s="1">
         <v>41617</v>
       </c>
-      <c r="BJ1" s="8">
+      <c r="BJ1" s="1">
         <v>41618</v>
       </c>
-      <c r="BK1" s="8">
+      <c r="BK1" s="1">
         <v>41619</v>
       </c>
-      <c r="BL1" s="8">
+      <c r="BL1" s="1">
         <v>41620</v>
       </c>
-      <c r="BM1" s="8">
+      <c r="BM1" s="1">
         <v>41621</v>
       </c>
-      <c r="BN1" s="8">
+      <c r="BN1" s="1">
         <v>41622</v>
       </c>
-      <c r="BO1" s="8">
+      <c r="BO1" s="1">
         <v>41623</v>
       </c>
-      <c r="BP1" s="8">
+      <c r="BP1" s="1">
         <v>41624</v>
       </c>
-      <c r="BQ1" s="8">
+      <c r="BQ1" s="1">
         <v>41625</v>
       </c>
-      <c r="BR1" s="8">
+      <c r="BR1" s="1">
         <v>41626</v>
       </c>
-      <c r="BS1" s="8">
+      <c r="BS1" s="1">
         <v>41627</v>
       </c>
-      <c r="BT1" s="8">
+      <c r="BT1" s="1">
         <v>41628</v>
       </c>
-      <c r="BU1" s="8">
+      <c r="BU1" s="1">
         <v>41629</v>
       </c>
-      <c r="BV1" s="8">
+      <c r="BV1" s="1">
         <v>41630</v>
       </c>
-      <c r="BW1" s="8">
+      <c r="BW1" s="1">
         <v>41631</v>
       </c>
-      <c r="BX1" s="8">
+      <c r="BX1" s="1">
         <v>41632</v>
       </c>
-      <c r="BY1" s="8">
+      <c r="BY1" s="1">
         <v>41633</v>
       </c>
-      <c r="BZ1" s="8">
+      <c r="BZ1" s="1">
         <v>41634</v>
       </c>
-      <c r="CA1" s="8">
+      <c r="CA1" s="1">
         <v>41635</v>
       </c>
-      <c r="CB1" s="8">
+      <c r="CB1" s="1">
         <v>41636</v>
       </c>
-      <c r="CC1" s="8">
+      <c r="CC1" s="1">
         <v>41637</v>
       </c>
-      <c r="CD1" s="8">
+      <c r="CD1" s="1">
         <v>41638</v>
       </c>
-      <c r="CE1" s="8">
+      <c r="CE1" s="1">
         <v>41639</v>
       </c>
-      <c r="CF1" s="8">
+      <c r="CF1" s="1">
         <v>41640</v>
       </c>
-      <c r="CG1" s="8">
+      <c r="CG1" s="1">
         <v>41641</v>
       </c>
-      <c r="CH1" s="8">
+      <c r="CH1" s="1">
         <v>41642</v>
       </c>
-      <c r="CI1" s="8">
+      <c r="CI1" s="1">
         <v>41643</v>
       </c>
-      <c r="CJ1" s="8">
+      <c r="CJ1" s="1">
         <v>41644</v>
       </c>
-      <c r="CK1" s="8">
+      <c r="CK1" s="1">
         <v>41645</v>
       </c>
-      <c r="CL1" s="8">
+      <c r="CL1" s="1">
         <v>41646</v>
       </c>
-      <c r="CM1" s="8">
+      <c r="CM1" s="1">
         <v>41647</v>
       </c>
-      <c r="CN1" s="8">
+      <c r="CN1" s="1">
         <v>41648</v>
       </c>
-      <c r="CO1" s="8">
+      <c r="CO1" s="1">
         <v>41649</v>
       </c>
-      <c r="CP1" s="8">
+      <c r="CP1" s="1">
         <v>41650</v>
       </c>
-      <c r="CQ1" s="8">
+      <c r="CQ1" s="1">
         <v>41651</v>
       </c>
-      <c r="CR1" s="8">
+      <c r="CR1" s="1">
         <v>41652</v>
       </c>
-      <c r="CS1" s="8">
+      <c r="CS1" s="1">
         <v>41653</v>
       </c>
-      <c r="CT1" s="8">
+      <c r="CT1" s="1">
         <v>41654</v>
       </c>
-      <c r="CU1" s="8">
+      <c r="CU1" s="1">
         <v>41655</v>
       </c>
-      <c r="CV1" s="8">
+      <c r="CV1" s="1">
         <v>41656</v>
       </c>
-      <c r="CW1" s="8">
+      <c r="CW1" s="1">
         <v>41657</v>
       </c>
-      <c r="CX1" s="8">
+      <c r="CX1" s="1">
         <v>41658</v>
       </c>
-      <c r="CY1" s="8">
+      <c r="CY1" s="1">
         <v>41659</v>
       </c>
-      <c r="CZ1" s="8">
+      <c r="CZ1" s="1">
         <v>41660</v>
       </c>
-      <c r="DA1" s="8">
+      <c r="DA1" s="1">
         <v>41661</v>
       </c>
-      <c r="DB1" s="8">
+      <c r="DB1" s="1">
         <v>41662</v>
       </c>
-      <c r="DC1" s="8">
+      <c r="DC1" s="1">
         <v>41663</v>
       </c>
-      <c r="DD1" s="8">
+      <c r="DD1" s="1">
         <v>41664</v>
       </c>
-      <c r="DE1" s="8">
+      <c r="DE1" s="1">
         <v>41665</v>
       </c>
-      <c r="DF1" s="8">
+      <c r="DF1" s="1">
         <v>41666</v>
       </c>
-      <c r="DG1" s="8">
+      <c r="DG1" s="1">
         <v>41667</v>
       </c>
-      <c r="DH1" s="8">
+      <c r="DH1" s="1">
         <v>41668</v>
       </c>
-      <c r="DI1" s="8">
+      <c r="DI1" s="1">
         <v>41669</v>
       </c>
-      <c r="DJ1" s="8">
+      <c r="DJ1" s="1">
         <v>41670</v>
       </c>
-      <c r="DK1" s="8">
+      <c r="DK1" s="1">
         <v>41671</v>
       </c>
-      <c r="DL1" s="8">
+      <c r="DL1" s="1">
         <v>41672</v>
       </c>
-      <c r="DM1" s="8">
+      <c r="DM1" s="1">
         <v>41673</v>
       </c>
-      <c r="DN1" s="8">
+      <c r="DN1" s="1">
         <v>41674</v>
       </c>
-      <c r="DO1" s="8">
+      <c r="DO1" s="1">
         <v>41675</v>
       </c>
-      <c r="DP1" s="8">
+      <c r="DP1" s="1">
         <v>41676</v>
       </c>
-      <c r="DQ1" s="8">
+      <c r="DQ1" s="1">
         <v>41677</v>
       </c>
-      <c r="DR1" s="8">
+      <c r="DR1" s="1">
         <v>41678</v>
       </c>
-      <c r="DS1" s="8">
+      <c r="DS1" s="1">
         <v>41679</v>
       </c>
-      <c r="DT1" s="8">
+      <c r="DT1" s="1">
         <v>41680</v>
       </c>
-      <c r="DU1" s="8">
+      <c r="DU1" s="1">
         <v>41681</v>
       </c>
-      <c r="DV1" s="8">
+      <c r="DV1" s="1">
         <v>41682</v>
       </c>
-      <c r="DW1" s="8">
+      <c r="DW1" s="1">
         <v>41683</v>
       </c>
-      <c r="DX1" s="8">
+      <c r="DX1" s="1">
         <v>41684</v>
       </c>
-      <c r="DY1" s="8">
+      <c r="DY1" s="1">
         <v>41685</v>
       </c>
-      <c r="DZ1" s="8">
+      <c r="DZ1" s="1">
         <v>41686</v>
       </c>
-      <c r="EA1" s="8">
+      <c r="EA1" s="1">
         <v>41687</v>
       </c>
-      <c r="EB1" s="8">
+      <c r="EB1" s="1">
         <v>41688</v>
       </c>
-      <c r="EC1" s="8">
+      <c r="EC1" s="1">
         <v>41689</v>
       </c>
-      <c r="ED1" s="8">
+      <c r="ED1" s="1">
         <v>41690</v>
       </c>
-      <c r="EE1" s="8">
+      <c r="EE1" s="1">
         <v>41691</v>
       </c>
-      <c r="EF1" s="8">
+      <c r="EF1" s="1">
         <v>41692</v>
       </c>
-      <c r="EG1" s="8">
+      <c r="EG1" s="1">
         <v>41693</v>
       </c>
-      <c r="EH1" s="8">
+      <c r="EH1" s="1">
         <v>41694</v>
       </c>
-      <c r="EI1" s="8">
+      <c r="EI1" s="1">
         <v>41695</v>
       </c>
-      <c r="EJ1" s="8">
+      <c r="EJ1" s="1">
         <v>41696</v>
       </c>
-      <c r="EK1" s="8">
+      <c r="EK1" s="1">
         <v>41697</v>
       </c>
-      <c r="EL1" s="8">
+      <c r="EL1" s="1">
         <v>41698</v>
       </c>
-      <c r="EM1" s="8">
+      <c r="EM1" s="1">
         <v>41699</v>
       </c>
-      <c r="EN1" s="8">
+      <c r="EN1" s="1">
         <v>41700</v>
       </c>
-      <c r="EO1" s="8">
+      <c r="EO1" s="1">
         <v>41701</v>
       </c>
-      <c r="EP1" s="8">
+      <c r="EP1" s="1">
         <v>41702</v>
       </c>
-      <c r="EQ1" s="8">
+      <c r="EQ1" s="1">
         <v>41703</v>
       </c>
-      <c r="ER1" s="8">
+      <c r="ER1" s="1">
         <v>41704</v>
       </c>
-      <c r="ES1" s="8">
+      <c r="ES1" s="1">
         <v>41705</v>
       </c>
-      <c r="ET1" s="8">
+      <c r="ET1" s="1">
         <v>41706</v>
       </c>
-      <c r="EU1" s="8">
+      <c r="EU1" s="1">
         <v>41707</v>
       </c>
-      <c r="EV1" s="8">
+      <c r="EV1" s="1">
         <v>41708</v>
       </c>
-      <c r="EW1" s="8">
+      <c r="EW1" s="1">
         <v>41709</v>
       </c>
-      <c r="EX1" s="8">
+      <c r="EX1" s="1">
         <v>41710</v>
       </c>
-      <c r="EY1" s="8">
+      <c r="EY1" s="1">
         <v>41711</v>
       </c>
-      <c r="EZ1" s="8">
+      <c r="EZ1" s="1">
         <v>41712</v>
       </c>
-      <c r="FA1" s="8">
+      <c r="FA1" s="1">
         <v>41713</v>
       </c>
-      <c r="FB1" s="8">
+      <c r="FB1" s="1">
         <v>41714</v>
       </c>
-      <c r="FC1" s="8">
+      <c r="FC1" s="1">
         <v>41715</v>
       </c>
-      <c r="FD1" s="8">
+      <c r="FD1" s="1">
         <v>41716</v>
       </c>
-      <c r="FE1" s="8">
+      <c r="FE1" s="1">
         <v>41717</v>
       </c>
-      <c r="FF1" s="8">
+      <c r="FF1" s="1">
         <v>41718</v>
       </c>
-      <c r="FG1" s="8">
+      <c r="FG1" s="1">
         <v>41719</v>
       </c>
-      <c r="FH1" s="8">
+      <c r="FH1" s="1">
         <v>41720</v>
       </c>
-      <c r="FI1" s="8">
+      <c r="FI1" s="1">
         <v>41721</v>
       </c>
-      <c r="FJ1" s="8">
+      <c r="FJ1" s="1">
         <v>41722</v>
       </c>
-      <c r="FK1" s="8">
+      <c r="FK1" s="1">
         <v>41723</v>
       </c>
-      <c r="FL1" s="8">
+      <c r="FL1" s="1">
         <v>41724</v>
       </c>
-      <c r="FM1" s="8">
+      <c r="FM1" s="1">
         <v>41725</v>
       </c>
-      <c r="FN1" s="8">
+      <c r="FN1" s="1">
         <v>41726</v>
       </c>
-      <c r="FO1" s="8">
+      <c r="FO1" s="1">
         <v>41727</v>
       </c>
-      <c r="FP1" s="8">
+      <c r="FP1" s="1">
         <v>41728</v>
       </c>
-      <c r="FQ1" s="8">
+      <c r="FQ1" s="1">
         <v>41729</v>
       </c>
-      <c r="FR1" s="8">
+      <c r="FR1" s="1">
         <v>41730</v>
       </c>
-      <c r="FS1" s="8">
+      <c r="FS1" s="1">
         <v>41731</v>
       </c>
-      <c r="FT1" s="8">
+      <c r="FT1" s="1">
         <v>41732</v>
       </c>
-      <c r="FU1" s="8">
+      <c r="FU1" s="1">
         <v>41733</v>
       </c>
-      <c r="FV1" s="8">
+      <c r="FV1" s="1">
         <v>41734</v>
       </c>
-      <c r="FW1" s="8">
+      <c r="FW1" s="1">
         <v>41735</v>
       </c>
-      <c r="FX1" s="8">
+      <c r="FX1" s="1">
         <v>41736</v>
       </c>
-      <c r="FY1" s="8">
+      <c r="FY1" s="1">
         <v>41737</v>
       </c>
-      <c r="FZ1" s="8">
+      <c r="FZ1" s="1">
         <v>41738</v>
       </c>
-      <c r="GA1" s="8">
+      <c r="GA1" s="1">
         <v>41739</v>
       </c>
-      <c r="GB1" s="8">
+      <c r="GB1" s="1">
         <v>41740</v>
       </c>
-      <c r="GC1" s="8">
+      <c r="GC1" s="1">
         <v>41741</v>
       </c>
-      <c r="GD1" s="8">
+      <c r="GD1" s="1">
         <v>41742</v>
       </c>
-      <c r="GE1" s="8">
+      <c r="GE1" s="1">
         <v>41743</v>
       </c>
-      <c r="GF1" s="8">
+      <c r="GF1" s="1">
         <v>41744</v>
       </c>
-      <c r="GG1" s="8">
+      <c r="GG1" s="1">
         <v>41745</v>
       </c>
-      <c r="GH1" s="8">
+      <c r="GH1" s="1">
         <v>41746</v>
       </c>
-      <c r="GI1" s="8">
+      <c r="GI1" s="1">
         <v>41747</v>
       </c>
-      <c r="GJ1" s="8">
+      <c r="GJ1" s="1">
         <v>41748</v>
       </c>
-      <c r="GK1" s="8">
+      <c r="GK1" s="1">
         <v>41749</v>
       </c>
-      <c r="GL1" s="8">
+      <c r="GL1" s="1">
         <v>41750</v>
       </c>
-      <c r="GM1" s="8">
+      <c r="GM1" s="1">
         <v>41751</v>
       </c>
-      <c r="GN1" s="8">
+      <c r="GN1" s="1">
         <v>41752</v>
       </c>
-      <c r="GO1" s="8">
+      <c r="GO1" s="1">
         <v>41753</v>
       </c>
-      <c r="GP1" s="8">
+      <c r="GP1" s="1">
         <v>41754</v>
       </c>
-      <c r="GQ1" s="8">
+      <c r="GQ1" s="1">
         <v>41755</v>
       </c>
-      <c r="GR1" s="8">
+      <c r="GR1" s="1">
         <v>41756</v>
       </c>
-      <c r="GS1" s="8">
+      <c r="GS1" s="1">
         <v>41757</v>
       </c>
-      <c r="GT1" s="8">
+      <c r="GT1" s="1">
         <v>41758</v>
       </c>
-      <c r="GU1" s="8">
+      <c r="GU1" s="1">
         <v>41759</v>
       </c>
-      <c r="GV1" s="8">
+      <c r="GV1" s="1">
         <v>41760</v>
       </c>
-      <c r="GW1" s="8">
+      <c r="GW1" s="1">
         <v>41761</v>
       </c>
-      <c r="GX1" s="8">
+      <c r="GX1" s="1">
         <v>41762</v>
       </c>
-      <c r="GY1" s="8">
+      <c r="GY1" s="1">
         <v>41763</v>
       </c>
-      <c r="GZ1" s="8">
+      <c r="GZ1" s="1">
         <v>41764</v>
       </c>
-      <c r="HA1" s="8">
+      <c r="HA1" s="1">
         <v>41765</v>
       </c>
-      <c r="HB1" s="8">
+      <c r="HB1" s="1">
         <v>41766</v>
       </c>
-      <c r="HC1" s="8">
+      <c r="HC1" s="1">
         <v>41767</v>
       </c>
-      <c r="HD1" s="8">
+      <c r="HD1" s="1">
         <v>41768</v>
       </c>
-      <c r="HE1" s="8">
+      <c r="HE1" s="1">
         <v>41769</v>
       </c>
-      <c r="HF1" s="8">
+      <c r="HF1" s="1">
         <v>41770</v>
       </c>
-      <c r="HG1" s="8">
+      <c r="HG1" s="1">
         <v>41771</v>
       </c>
-      <c r="HH1" s="8">
+      <c r="HH1" s="1">
         <v>41772</v>
       </c>
-      <c r="HI1" s="8">
+      <c r="HI1" s="1">
         <v>41773</v>
       </c>
-      <c r="HJ1" s="8">
+      <c r="HJ1" s="1">
         <v>41774</v>
       </c>
-      <c r="HK1" s="8">
+      <c r="HK1" s="1">
         <v>41775</v>
       </c>
-      <c r="HL1" s="8">
+      <c r="HL1" s="1">
         <v>41776</v>
       </c>
-      <c r="HM1" s="8">
+      <c r="HM1" s="1">
         <v>41777</v>
       </c>
-      <c r="HN1" s="8">
+      <c r="HN1" s="1">
         <v>41778</v>
       </c>
-      <c r="HO1" s="8">
+      <c r="HO1" s="1">
         <v>41779</v>
       </c>
-      <c r="HP1" s="8">
+      <c r="HP1" s="1">
         <v>41780</v>
       </c>
-      <c r="HQ1" s="8">
+      <c r="HQ1" s="1">
         <v>41781</v>
       </c>
-      <c r="HR1" s="8">
+      <c r="HR1" s="1">
         <v>41782</v>
       </c>
-      <c r="HS1" s="8">
+      <c r="HS1" s="1">
         <v>41783</v>
       </c>
-      <c r="HT1" s="8">
+      <c r="HT1" s="1">
         <v>41784</v>
       </c>
-      <c r="HU1" s="8">
+      <c r="HU1" s="1">
         <v>41785</v>
       </c>
-      <c r="HV1" s="8">
+      <c r="HV1" s="1">
         <v>41786</v>
       </c>
-      <c r="HW1" s="8">
+      <c r="HW1" s="1">
         <v>41787</v>
       </c>
-      <c r="HX1" s="8">
+      <c r="HX1" s="1">
         <v>41788</v>
       </c>
-      <c r="HY1" s="8">
+      <c r="HY1" s="1">
         <v>41789</v>
       </c>
-      <c r="HZ1" s="8">
+      <c r="HZ1" s="1">
         <v>41790</v>
       </c>
-      <c r="IA1" s="8">
+      <c r="IA1" s="1">
         <v>41791</v>
       </c>
-      <c r="IB1" s="8">
+      <c r="IB1" s="1">
         <v>41792</v>
       </c>
-      <c r="IC1" s="8">
+      <c r="IC1" s="1">
         <v>41793</v>
       </c>
-      <c r="ID1" s="8">
+      <c r="ID1" s="1">
         <v>41794</v>
       </c>
-      <c r="IE1" s="8">
+      <c r="IE1" s="1">
         <v>41795</v>
       </c>
-      <c r="IF1" s="8">
+      <c r="IF1" s="1">
         <v>41796</v>
       </c>
-      <c r="IG1" s="8">
+      <c r="IG1" s="1">
         <v>41797</v>
       </c>
-      <c r="IH1" s="8">
+      <c r="IH1" s="1">
         <v>41798</v>
       </c>
-      <c r="II1" s="8">
+      <c r="II1" s="1">
         <v>41799</v>
       </c>
-      <c r="IJ1" s="8">
+      <c r="IJ1" s="1">
         <v>41800</v>
       </c>
-      <c r="IK1" s="8">
+      <c r="IK1" s="1">
         <v>41801</v>
       </c>
-      <c r="IL1" s="8">
+      <c r="IL1" s="1">
         <v>41802</v>
       </c>
-      <c r="IM1" s="8">
+      <c r="IM1" s="1">
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" ht="120" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:247" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="5"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="5"/>
+      <c r="CX2" s="5"/>
+      <c r="CY2" s="5"/>
+      <c r="CZ2" s="5"/>
+      <c r="DA2" s="5"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
+      <c r="DF2" s="5"/>
+      <c r="DG2" s="5"/>
+      <c r="DH2" s="5"/>
+      <c r="DI2" s="5"/>
+      <c r="DJ2" s="5"/>
+      <c r="DK2" s="5"/>
+      <c r="DL2" s="5"/>
+      <c r="DM2" s="5"/>
+      <c r="DN2" s="5"/>
+      <c r="DO2" s="5"/>
+      <c r="DP2" s="5"/>
+      <c r="DQ2" s="5"/>
+      <c r="DR2" s="5"/>
+      <c r="DS2" s="5"/>
+      <c r="DT2" s="5"/>
+      <c r="DU2" s="5"/>
+      <c r="DV2" s="5"/>
+      <c r="DW2" s="5"/>
+      <c r="DX2" s="5"/>
+      <c r="DY2" s="5"/>
+      <c r="DZ2" s="5"/>
+      <c r="EA2" s="5"/>
+      <c r="EB2" s="5"/>
+      <c r="EC2" s="5"/>
+      <c r="ED2" s="5"/>
+      <c r="EE2" s="5"/>
+      <c r="EF2" s="5"/>
+      <c r="EG2" s="5"/>
+      <c r="EH2" s="5"/>
+      <c r="EI2" s="5"/>
+      <c r="EJ2" s="5"/>
+      <c r="EK2" s="5"/>
+      <c r="EL2" s="5"/>
+      <c r="EM2" s="5"/>
+      <c r="EN2" s="5"/>
+      <c r="EO2" s="5"/>
+      <c r="EP2" s="5"/>
+      <c r="EQ2" s="5"/>
+      <c r="ER2" s="5"/>
+      <c r="ES2" s="5"/>
+      <c r="ET2" s="5"/>
+      <c r="EU2" s="5"/>
+      <c r="EV2" s="5"/>
+      <c r="EW2" s="5"/>
+      <c r="EX2" s="5"/>
+      <c r="EY2" s="5"/>
+      <c r="EZ2" s="5"/>
+      <c r="FA2" s="5"/>
+      <c r="FB2" s="5"/>
+      <c r="FC2" s="5"/>
+      <c r="FD2" s="5"/>
+      <c r="FE2" s="5"/>
+      <c r="FF2" s="5"/>
+      <c r="FG2" s="5"/>
+      <c r="FH2" s="5"/>
+      <c r="FI2" s="5"/>
+      <c r="FJ2" s="5"/>
+      <c r="FK2" s="5"/>
+      <c r="FL2" s="5"/>
+      <c r="FM2" s="5"/>
+      <c r="FN2" s="5"/>
+      <c r="FO2" s="5"/>
+      <c r="FP2" s="5"/>
+      <c r="FQ2" s="5"/>
+      <c r="FR2" s="5"/>
+      <c r="FS2" s="5"/>
+      <c r="FT2" s="5"/>
+      <c r="FU2" s="5"/>
+      <c r="FV2" s="5"/>
+      <c r="FW2" s="5"/>
+      <c r="FX2" s="5"/>
+      <c r="FY2" s="5"/>
+      <c r="FZ2" s="5"/>
+      <c r="GA2" s="5"/>
+      <c r="GB2" s="5"/>
+      <c r="GC2" s="5"/>
+      <c r="GD2" s="5"/>
+      <c r="GE2" s="5"/>
+      <c r="GF2" s="5"/>
+      <c r="GG2" s="5"/>
+      <c r="GH2" s="5"/>
+      <c r="GI2" s="5"/>
+      <c r="GJ2" s="5"/>
+      <c r="GK2" s="5"/>
+      <c r="GL2" s="5"/>
+      <c r="GM2" s="5"/>
+      <c r="GN2" s="5"/>
+      <c r="GO2" s="5"/>
+      <c r="GP2" s="5"/>
+      <c r="GQ2" s="5"/>
+      <c r="GR2" s="5"/>
+      <c r="GS2" s="5"/>
+      <c r="GT2" s="5"/>
+      <c r="GU2" s="5"/>
+      <c r="GV2" s="5"/>
+      <c r="GW2" s="5"/>
+      <c r="GX2" s="5"/>
+      <c r="GY2" s="5"/>
+      <c r="GZ2" s="5"/>
+      <c r="HA2" s="5"/>
+      <c r="HB2" s="5"/>
+      <c r="HC2" s="5"/>
+      <c r="HD2" s="5"/>
+      <c r="HE2" s="5"/>
+      <c r="HF2" s="5"/>
+      <c r="HG2" s="5"/>
+      <c r="HH2" s="5"/>
+      <c r="HI2" s="5"/>
+      <c r="HJ2" s="5"/>
+      <c r="HK2" s="5"/>
+      <c r="HL2" s="5"/>
+      <c r="HM2" s="5"/>
+      <c r="HN2" s="5"/>
+      <c r="HO2" s="5"/>
+      <c r="HP2" s="5"/>
+      <c r="HQ2" s="5"/>
+      <c r="HR2" s="5"/>
+      <c r="HS2" s="5"/>
+      <c r="HT2" s="5"/>
+      <c r="HU2" s="5"/>
+      <c r="HV2" s="5"/>
+      <c r="HW2" s="5"/>
+      <c r="HX2" s="5"/>
+      <c r="HY2" s="5"/>
+      <c r="HZ2" s="5"/>
+      <c r="IA2" s="5"/>
+      <c r="IB2" s="5"/>
+      <c r="IC2" s="5"/>
+      <c r="ID2" s="5"/>
+      <c r="IE2" s="5"/>
+      <c r="IF2" s="5"/>
+      <c r="IG2" s="5"/>
+      <c r="IH2" s="5"/>
+      <c r="II2" s="5"/>
+      <c r="IJ2" s="5"/>
+      <c r="IK2" s="5"/>
+      <c r="IL2" s="5"/>
+      <c r="IM2" s="5"/>
     </row>
-    <row r="3" spans="1:247" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:247" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+      <c r="DQ3" s="5"/>
+      <c r="DR3" s="5"/>
+      <c r="DS3" s="5"/>
+      <c r="DT3" s="5"/>
+      <c r="DU3" s="5"/>
+      <c r="DV3" s="5"/>
+      <c r="DW3" s="5"/>
+      <c r="DX3" s="5"/>
+      <c r="DY3" s="5"/>
+      <c r="DZ3" s="5"/>
+      <c r="EA3" s="5"/>
+      <c r="EB3" s="5"/>
+      <c r="EC3" s="5"/>
+      <c r="ED3" s="5"/>
+      <c r="EE3" s="5"/>
+      <c r="EF3" s="5"/>
+      <c r="EG3" s="5"/>
+      <c r="EH3" s="5"/>
+      <c r="EI3" s="5"/>
+      <c r="EJ3" s="5"/>
+      <c r="EK3" s="5"/>
+      <c r="EL3" s="5"/>
+      <c r="EM3" s="5"/>
+      <c r="EN3" s="5"/>
+      <c r="EO3" s="5"/>
+      <c r="EP3" s="5"/>
+      <c r="EQ3" s="5"/>
+      <c r="ER3" s="5"/>
+      <c r="ES3" s="5"/>
+      <c r="ET3" s="5"/>
+      <c r="EU3" s="5"/>
+      <c r="EV3" s="5"/>
+      <c r="EW3" s="5"/>
+      <c r="EX3" s="5"/>
+      <c r="EY3" s="5"/>
+      <c r="EZ3" s="5"/>
+      <c r="FA3" s="5"/>
+      <c r="FB3" s="5"/>
+      <c r="FC3" s="5"/>
+      <c r="FD3" s="5"/>
+      <c r="FE3" s="5"/>
+      <c r="FF3" s="5"/>
+      <c r="FG3" s="5"/>
+      <c r="FH3" s="5"/>
+      <c r="FI3" s="5"/>
+      <c r="FJ3" s="5"/>
+      <c r="FK3" s="5"/>
+      <c r="FL3" s="5"/>
+      <c r="FM3" s="5"/>
+      <c r="FN3" s="5"/>
+      <c r="FO3" s="5"/>
+      <c r="FP3" s="5"/>
+      <c r="FQ3" s="5"/>
+      <c r="FR3" s="5"/>
+      <c r="FS3" s="5"/>
+      <c r="FT3" s="5"/>
+      <c r="FU3" s="5"/>
+      <c r="FV3" s="5"/>
+      <c r="FW3" s="5"/>
+      <c r="FX3" s="5"/>
+      <c r="FY3" s="5"/>
+      <c r="FZ3" s="5"/>
+      <c r="GA3" s="5"/>
+      <c r="GB3" s="5"/>
+      <c r="GC3" s="5"/>
+      <c r="GD3" s="5"/>
+      <c r="GE3" s="5"/>
+      <c r="GF3" s="5"/>
+      <c r="GG3" s="5"/>
+      <c r="GH3" s="5"/>
+      <c r="GI3" s="5"/>
+      <c r="GJ3" s="5"/>
+      <c r="GK3" s="5"/>
+      <c r="GL3" s="5"/>
+      <c r="GM3" s="5"/>
+      <c r="GN3" s="5"/>
+      <c r="GO3" s="5"/>
+      <c r="GP3" s="5"/>
+      <c r="GQ3" s="5"/>
+      <c r="GR3" s="5"/>
+      <c r="GS3" s="5"/>
+      <c r="GT3" s="5"/>
+      <c r="GU3" s="5"/>
+      <c r="GV3" s="5"/>
+      <c r="GW3" s="5"/>
+      <c r="GX3" s="5"/>
+      <c r="GY3" s="5"/>
+      <c r="GZ3" s="5"/>
+      <c r="HA3" s="5"/>
+      <c r="HB3" s="5"/>
+      <c r="HC3" s="5"/>
+      <c r="HD3" s="5"/>
+      <c r="HE3" s="5"/>
+      <c r="HF3" s="5"/>
+      <c r="HG3" s="5"/>
+      <c r="HH3" s="5"/>
+      <c r="HI3" s="5"/>
+      <c r="HJ3" s="5"/>
+      <c r="HK3" s="5"/>
+      <c r="HL3" s="5"/>
+      <c r="HM3" s="5"/>
+      <c r="HN3" s="5"/>
+      <c r="HO3" s="5"/>
+      <c r="HP3" s="5"/>
+      <c r="HQ3" s="5"/>
+      <c r="HR3" s="5"/>
+      <c r="HS3" s="5"/>
+      <c r="HT3" s="5"/>
+      <c r="HU3" s="5"/>
+      <c r="HV3" s="5"/>
+      <c r="HW3" s="5"/>
+      <c r="HX3" s="5"/>
+      <c r="HY3" s="5"/>
+      <c r="HZ3" s="5"/>
+      <c r="IA3" s="5"/>
+      <c r="IB3" s="5"/>
+      <c r="IC3" s="5"/>
+      <c r="ID3" s="5"/>
+      <c r="IE3" s="5"/>
+      <c r="IF3" s="5"/>
+      <c r="IG3" s="5"/>
+      <c r="IH3" s="5"/>
+      <c r="II3" s="5"/>
+      <c r="IJ3" s="5"/>
+      <c r="IK3" s="5"/>
+      <c r="IL3" s="5"/>
+      <c r="IM3" s="5"/>
     </row>
-    <row r="4" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:247" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
+      <c r="DN4" s="5"/>
+      <c r="DO4" s="5"/>
+      <c r="DP4" s="5"/>
+      <c r="DQ4" s="5"/>
+      <c r="DR4" s="5"/>
+      <c r="DS4" s="5"/>
+      <c r="DT4" s="5"/>
+      <c r="DU4" s="5"/>
+      <c r="DV4" s="5"/>
+      <c r="DW4" s="5"/>
+      <c r="DX4" s="5"/>
+      <c r="DY4" s="5"/>
+      <c r="DZ4" s="5"/>
+      <c r="EA4" s="5"/>
+      <c r="EB4" s="5"/>
+      <c r="EC4" s="5"/>
+      <c r="ED4" s="5"/>
+      <c r="EE4" s="5"/>
+      <c r="EF4" s="5"/>
+      <c r="EG4" s="5"/>
+      <c r="EH4" s="5"/>
+      <c r="EI4" s="5"/>
+      <c r="EJ4" s="5"/>
+      <c r="EK4" s="5"/>
+      <c r="EL4" s="5"/>
+      <c r="EM4" s="5"/>
+      <c r="EN4" s="5"/>
+      <c r="EO4" s="5"/>
+      <c r="EP4" s="5"/>
+      <c r="EQ4" s="5"/>
+      <c r="ER4" s="5"/>
+      <c r="ES4" s="5"/>
+      <c r="ET4" s="5"/>
+      <c r="EU4" s="5"/>
+      <c r="EV4" s="5"/>
+      <c r="EW4" s="5"/>
+      <c r="EX4" s="5"/>
+      <c r="EY4" s="5"/>
+      <c r="EZ4" s="5"/>
+      <c r="FA4" s="5"/>
+      <c r="FB4" s="5"/>
+      <c r="FC4" s="5"/>
+      <c r="FD4" s="5"/>
+      <c r="FE4" s="5"/>
+      <c r="FF4" s="5"/>
+      <c r="FG4" s="5"/>
+      <c r="FH4" s="5"/>
+      <c r="FI4" s="5"/>
+      <c r="FJ4" s="5"/>
+      <c r="FK4" s="5"/>
+      <c r="FL4" s="5"/>
+      <c r="FM4" s="5"/>
+      <c r="FN4" s="5"/>
+      <c r="FO4" s="5"/>
+      <c r="FP4" s="5"/>
+      <c r="FQ4" s="5"/>
+      <c r="FR4" s="5"/>
+      <c r="FS4" s="5"/>
+      <c r="FT4" s="5"/>
+      <c r="FU4" s="5"/>
+      <c r="FV4" s="5"/>
+      <c r="FW4" s="5"/>
+      <c r="FX4" s="5"/>
+      <c r="FY4" s="5"/>
+      <c r="FZ4" s="5"/>
+      <c r="GA4" s="5"/>
+      <c r="GB4" s="5"/>
+      <c r="GC4" s="5"/>
+      <c r="GD4" s="5"/>
+      <c r="GE4" s="5"/>
+      <c r="GF4" s="5"/>
+      <c r="GG4" s="5"/>
+      <c r="GH4" s="5"/>
+      <c r="GI4" s="5"/>
+      <c r="GJ4" s="5"/>
+      <c r="GK4" s="5"/>
+      <c r="GL4" s="5"/>
+      <c r="GM4" s="5"/>
+      <c r="GN4" s="5"/>
+      <c r="GO4" s="5"/>
+      <c r="GP4" s="5"/>
+      <c r="GQ4" s="5"/>
+      <c r="GR4" s="5"/>
+      <c r="GS4" s="5"/>
+      <c r="GT4" s="5"/>
+      <c r="GU4" s="5"/>
+      <c r="GV4" s="5"/>
+      <c r="GW4" s="5"/>
+      <c r="GX4" s="5"/>
+      <c r="GY4" s="5"/>
+      <c r="GZ4" s="5"/>
+      <c r="HA4" s="5"/>
+      <c r="HB4" s="5"/>
+      <c r="HC4" s="5"/>
+      <c r="HD4" s="5"/>
+      <c r="HE4" s="5"/>
+      <c r="HF4" s="5"/>
+      <c r="HG4" s="5"/>
+      <c r="HH4" s="5"/>
+      <c r="HI4" s="5"/>
+      <c r="HJ4" s="5"/>
+      <c r="HK4" s="5"/>
+      <c r="HL4" s="5"/>
+      <c r="HM4" s="5"/>
+      <c r="HN4" s="5"/>
+      <c r="HO4" s="5"/>
+      <c r="HP4" s="5"/>
+      <c r="HQ4" s="5"/>
+      <c r="HR4" s="5"/>
+      <c r="HS4" s="5"/>
+      <c r="HT4" s="5"/>
+      <c r="HU4" s="5"/>
+      <c r="HV4" s="5"/>
+      <c r="HW4" s="5"/>
+      <c r="HX4" s="5"/>
+      <c r="HY4" s="5"/>
+      <c r="HZ4" s="5"/>
+      <c r="IA4" s="5"/>
+      <c r="IB4" s="5"/>
+      <c r="IC4" s="5"/>
+      <c r="ID4" s="5"/>
+      <c r="IE4" s="5"/>
+      <c r="IF4" s="5"/>
+      <c r="IG4" s="5"/>
+      <c r="IH4" s="5"/>
+      <c r="II4" s="5"/>
+      <c r="IJ4" s="5"/>
+      <c r="IK4" s="5"/>
+      <c r="IL4" s="5"/>
+      <c r="IM4" s="5"/>
     </row>
-    <row r="5" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:247" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:247" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="16"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
+      <c r="BR5" s="16"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="16"/>
+      <c r="BZ5" s="16"/>
+      <c r="CA5" s="16"/>
+      <c r="CB5" s="16"/>
+      <c r="CC5" s="16"/>
+      <c r="CD5" s="16"/>
+      <c r="CE5" s="16"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="16"/>
+      <c r="CI5" s="16"/>
+      <c r="CJ5" s="16"/>
+      <c r="CK5" s="16"/>
+      <c r="CL5" s="16"/>
+      <c r="CM5" s="16"/>
+      <c r="CN5" s="16"/>
+      <c r="CO5" s="16"/>
+      <c r="CP5" s="16"/>
+      <c r="CQ5" s="16"/>
+      <c r="CR5" s="16"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
+      <c r="CX5" s="16"/>
+      <c r="CY5" s="16"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
+      <c r="DB5" s="16"/>
+      <c r="DC5" s="16"/>
+      <c r="DD5" s="16"/>
+      <c r="DE5" s="16"/>
+      <c r="DF5" s="16"/>
+      <c r="DG5" s="16"/>
+      <c r="DH5" s="16"/>
+      <c r="DI5" s="16"/>
+      <c r="DJ5" s="16"/>
+      <c r="DK5" s="16"/>
+      <c r="DL5" s="16"/>
+      <c r="DM5" s="16"/>
+      <c r="DN5" s="16"/>
+      <c r="DO5" s="16"/>
+      <c r="DP5" s="16"/>
+      <c r="DQ5" s="16"/>
+      <c r="DR5" s="16"/>
+      <c r="DS5" s="16"/>
+      <c r="DT5" s="16"/>
+      <c r="DU5" s="16"/>
+      <c r="DV5" s="16"/>
+      <c r="DW5" s="16"/>
+      <c r="DX5" s="16"/>
+      <c r="DY5" s="16"/>
+      <c r="DZ5" s="16"/>
+      <c r="EA5" s="16"/>
+      <c r="EB5" s="16"/>
+      <c r="EC5" s="16"/>
+      <c r="ED5" s="16"/>
+      <c r="EE5" s="16"/>
+      <c r="EF5" s="16"/>
+      <c r="EG5" s="16"/>
+      <c r="EH5" s="16"/>
+      <c r="EI5" s="16"/>
+      <c r="EJ5" s="16"/>
+      <c r="EK5" s="16"/>
+      <c r="EL5" s="16"/>
+      <c r="EM5" s="16"/>
+      <c r="EN5" s="16"/>
+      <c r="EO5" s="16"/>
+      <c r="EP5" s="16"/>
+      <c r="EQ5" s="16"/>
+      <c r="ER5" s="16"/>
+      <c r="ES5" s="16"/>
+      <c r="ET5" s="16"/>
+      <c r="EU5" s="16"/>
+      <c r="EV5" s="16"/>
+      <c r="EW5" s="16"/>
+      <c r="EX5" s="16"/>
+      <c r="EY5" s="16"/>
+      <c r="EZ5" s="16"/>
+      <c r="FA5" s="16"/>
+      <c r="FB5" s="16"/>
+      <c r="FC5" s="16"/>
+      <c r="FD5" s="16"/>
+      <c r="FE5" s="16"/>
+      <c r="FF5" s="16"/>
+      <c r="FG5" s="16"/>
+      <c r="FH5" s="16"/>
+      <c r="FI5" s="16"/>
+      <c r="FJ5" s="16"/>
+      <c r="FK5" s="16"/>
+      <c r="FL5" s="16"/>
+      <c r="FM5" s="16"/>
+      <c r="FN5" s="16"/>
+      <c r="FO5" s="16"/>
+      <c r="FP5" s="16"/>
+      <c r="FQ5" s="16"/>
+      <c r="FR5" s="16"/>
+      <c r="FS5" s="16"/>
+      <c r="FT5" s="16"/>
+      <c r="FU5" s="16"/>
+      <c r="FV5" s="16"/>
+      <c r="FW5" s="16"/>
+      <c r="FX5" s="16"/>
+      <c r="FY5" s="16"/>
+      <c r="FZ5" s="16"/>
+      <c r="GA5" s="16"/>
+      <c r="GB5" s="16"/>
+      <c r="GC5" s="16"/>
+      <c r="GD5" s="16"/>
+      <c r="GE5" s="16"/>
+      <c r="GF5" s="16"/>
+      <c r="GG5" s="16"/>
+      <c r="GH5" s="16"/>
+      <c r="GI5" s="16"/>
+      <c r="GJ5" s="16"/>
+      <c r="GK5" s="16"/>
+      <c r="GL5" s="16"/>
+      <c r="GM5" s="16"/>
+      <c r="GN5" s="16"/>
+      <c r="GO5" s="16"/>
+      <c r="GP5" s="16"/>
+      <c r="GQ5" s="16"/>
+      <c r="GR5" s="16"/>
+      <c r="GS5" s="16"/>
+      <c r="GT5" s="16"/>
+      <c r="GU5" s="16"/>
+      <c r="GV5" s="16"/>
+      <c r="GW5" s="16"/>
+      <c r="GX5" s="16"/>
+      <c r="GY5" s="16"/>
+      <c r="GZ5" s="16"/>
+      <c r="HA5" s="16"/>
+      <c r="HB5" s="16"/>
+      <c r="HC5" s="16"/>
+      <c r="HD5" s="16"/>
+      <c r="HE5" s="16"/>
+      <c r="HF5" s="16"/>
+      <c r="HG5" s="16"/>
+      <c r="HH5" s="16"/>
+      <c r="HI5" s="16"/>
+      <c r="HJ5" s="16"/>
+      <c r="HK5" s="16"/>
+      <c r="HL5" s="16"/>
+      <c r="HM5" s="16"/>
+      <c r="HN5" s="16"/>
+      <c r="HO5" s="16"/>
+      <c r="HP5" s="16"/>
+      <c r="HQ5" s="16"/>
+      <c r="HR5" s="16"/>
+      <c r="HS5" s="16"/>
+      <c r="HT5" s="16"/>
+      <c r="HU5" s="16"/>
+      <c r="HV5" s="16"/>
+      <c r="HW5" s="16"/>
+      <c r="HX5" s="16"/>
+      <c r="HY5" s="16"/>
+      <c r="HZ5" s="16"/>
+      <c r="IA5" s="16"/>
+      <c r="IB5" s="16"/>
+      <c r="IC5" s="16"/>
+      <c r="ID5" s="16"/>
+      <c r="IE5" s="16"/>
+      <c r="IF5" s="16"/>
+      <c r="IG5" s="16"/>
+      <c r="IH5" s="16"/>
+      <c r="II5" s="16"/>
+      <c r="IJ5" s="16"/>
+      <c r="IK5" s="16"/>
+      <c r="IL5" s="16"/>
+      <c r="IM5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -240,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1313,7 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -212,12 +212,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -236,9 +230,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,18 +540,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="57" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="247" width="50.7109375" style="18" customWidth="1"/>
-    <col min="248" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="29.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="57" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="247" width="50.7109375" style="16" customWidth="1"/>
+    <col min="248" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:247" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1306,14 +1297,14 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" s="11" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" s="9" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3"/>
@@ -1326,10 +1317,10 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="5"/>
@@ -1571,8 +1562,8 @@
       <c r="IL2" s="5"/>
       <c r="IM2" s="5"/>
     </row>
-    <row r="3" spans="1:247" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:247" s="9" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1585,10 +1576,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1828,14 +1819,14 @@
       <c r="IL3" s="5"/>
       <c r="IM3" s="5"/>
     </row>
-    <row r="4" spans="1:247" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:247" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1850,10 +1841,10 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="5"/>
@@ -2095,269 +2086,269 @@
       <c r="IL4" s="5"/>
       <c r="IM4" s="5"/>
     </row>
-    <row r="5" spans="1:247" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:247" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="16"/>
-      <c r="AJ5" s="16"/>
-      <c r="AK5" s="16"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="16"/>
-      <c r="BD5" s="16"/>
-      <c r="BE5" s="16"/>
-      <c r="BF5" s="16"/>
-      <c r="BG5" s="16"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="16"/>
-      <c r="BK5" s="16"/>
-      <c r="BL5" s="16"/>
-      <c r="BM5" s="16"/>
-      <c r="BN5" s="16"/>
-      <c r="BO5" s="16"/>
-      <c r="BP5" s="16"/>
-      <c r="BQ5" s="16"/>
-      <c r="BR5" s="16"/>
-      <c r="BS5" s="16"/>
-      <c r="BT5" s="16"/>
-      <c r="BU5" s="16"/>
-      <c r="BV5" s="16"/>
-      <c r="BW5" s="16"/>
-      <c r="BX5" s="16"/>
-      <c r="BY5" s="16"/>
-      <c r="BZ5" s="16"/>
-      <c r="CA5" s="16"/>
-      <c r="CB5" s="16"/>
-      <c r="CC5" s="16"/>
-      <c r="CD5" s="16"/>
-      <c r="CE5" s="16"/>
-      <c r="CF5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CI5" s="16"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="16"/>
-      <c r="CL5" s="16"/>
-      <c r="CM5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
-      <c r="CP5" s="16"/>
-      <c r="CQ5" s="16"/>
-      <c r="CR5" s="16"/>
-      <c r="CS5" s="16"/>
-      <c r="CT5" s="16"/>
-      <c r="CU5" s="16"/>
-      <c r="CV5" s="16"/>
-      <c r="CW5" s="16"/>
-      <c r="CX5" s="16"/>
-      <c r="CY5" s="16"/>
-      <c r="CZ5" s="16"/>
-      <c r="DA5" s="16"/>
-      <c r="DB5" s="16"/>
-      <c r="DC5" s="16"/>
-      <c r="DD5" s="16"/>
-      <c r="DE5" s="16"/>
-      <c r="DF5" s="16"/>
-      <c r="DG5" s="16"/>
-      <c r="DH5" s="16"/>
-      <c r="DI5" s="16"/>
-      <c r="DJ5" s="16"/>
-      <c r="DK5" s="16"/>
-      <c r="DL5" s="16"/>
-      <c r="DM5" s="16"/>
-      <c r="DN5" s="16"/>
-      <c r="DO5" s="16"/>
-      <c r="DP5" s="16"/>
-      <c r="DQ5" s="16"/>
-      <c r="DR5" s="16"/>
-      <c r="DS5" s="16"/>
-      <c r="DT5" s="16"/>
-      <c r="DU5" s="16"/>
-      <c r="DV5" s="16"/>
-      <c r="DW5" s="16"/>
-      <c r="DX5" s="16"/>
-      <c r="DY5" s="16"/>
-      <c r="DZ5" s="16"/>
-      <c r="EA5" s="16"/>
-      <c r="EB5" s="16"/>
-      <c r="EC5" s="16"/>
-      <c r="ED5" s="16"/>
-      <c r="EE5" s="16"/>
-      <c r="EF5" s="16"/>
-      <c r="EG5" s="16"/>
-      <c r="EH5" s="16"/>
-      <c r="EI5" s="16"/>
-      <c r="EJ5" s="16"/>
-      <c r="EK5" s="16"/>
-      <c r="EL5" s="16"/>
-      <c r="EM5" s="16"/>
-      <c r="EN5" s="16"/>
-      <c r="EO5" s="16"/>
-      <c r="EP5" s="16"/>
-      <c r="EQ5" s="16"/>
-      <c r="ER5" s="16"/>
-      <c r="ES5" s="16"/>
-      <c r="ET5" s="16"/>
-      <c r="EU5" s="16"/>
-      <c r="EV5" s="16"/>
-      <c r="EW5" s="16"/>
-      <c r="EX5" s="16"/>
-      <c r="EY5" s="16"/>
-      <c r="EZ5" s="16"/>
-      <c r="FA5" s="16"/>
-      <c r="FB5" s="16"/>
-      <c r="FC5" s="16"/>
-      <c r="FD5" s="16"/>
-      <c r="FE5" s="16"/>
-      <c r="FF5" s="16"/>
-      <c r="FG5" s="16"/>
-      <c r="FH5" s="16"/>
-      <c r="FI5" s="16"/>
-      <c r="FJ5" s="16"/>
-      <c r="FK5" s="16"/>
-      <c r="FL5" s="16"/>
-      <c r="FM5" s="16"/>
-      <c r="FN5" s="16"/>
-      <c r="FO5" s="16"/>
-      <c r="FP5" s="16"/>
-      <c r="FQ5" s="16"/>
-      <c r="FR5" s="16"/>
-      <c r="FS5" s="16"/>
-      <c r="FT5" s="16"/>
-      <c r="FU5" s="16"/>
-      <c r="FV5" s="16"/>
-      <c r="FW5" s="16"/>
-      <c r="FX5" s="16"/>
-      <c r="FY5" s="16"/>
-      <c r="FZ5" s="16"/>
-      <c r="GA5" s="16"/>
-      <c r="GB5" s="16"/>
-      <c r="GC5" s="16"/>
-      <c r="GD5" s="16"/>
-      <c r="GE5" s="16"/>
-      <c r="GF5" s="16"/>
-      <c r="GG5" s="16"/>
-      <c r="GH5" s="16"/>
-      <c r="GI5" s="16"/>
-      <c r="GJ5" s="16"/>
-      <c r="GK5" s="16"/>
-      <c r="GL5" s="16"/>
-      <c r="GM5" s="16"/>
-      <c r="GN5" s="16"/>
-      <c r="GO5" s="16"/>
-      <c r="GP5" s="16"/>
-      <c r="GQ5" s="16"/>
-      <c r="GR5" s="16"/>
-      <c r="GS5" s="16"/>
-      <c r="GT5" s="16"/>
-      <c r="GU5" s="16"/>
-      <c r="GV5" s="16"/>
-      <c r="GW5" s="16"/>
-      <c r="GX5" s="16"/>
-      <c r="GY5" s="16"/>
-      <c r="GZ5" s="16"/>
-      <c r="HA5" s="16"/>
-      <c r="HB5" s="16"/>
-      <c r="HC5" s="16"/>
-      <c r="HD5" s="16"/>
-      <c r="HE5" s="16"/>
-      <c r="HF5" s="16"/>
-      <c r="HG5" s="16"/>
-      <c r="HH5" s="16"/>
-      <c r="HI5" s="16"/>
-      <c r="HJ5" s="16"/>
-      <c r="HK5" s="16"/>
-      <c r="HL5" s="16"/>
-      <c r="HM5" s="16"/>
-      <c r="HN5" s="16"/>
-      <c r="HO5" s="16"/>
-      <c r="HP5" s="16"/>
-      <c r="HQ5" s="16"/>
-      <c r="HR5" s="16"/>
-      <c r="HS5" s="16"/>
-      <c r="HT5" s="16"/>
-      <c r="HU5" s="16"/>
-      <c r="HV5" s="16"/>
-      <c r="HW5" s="16"/>
-      <c r="HX5" s="16"/>
-      <c r="HY5" s="16"/>
-      <c r="HZ5" s="16"/>
-      <c r="IA5" s="16"/>
-      <c r="IB5" s="16"/>
-      <c r="IC5" s="16"/>
-      <c r="ID5" s="16"/>
-      <c r="IE5" s="16"/>
-      <c r="IF5" s="16"/>
-      <c r="IG5" s="16"/>
-      <c r="IH5" s="16"/>
-      <c r="II5" s="16"/>
-      <c r="IJ5" s="16"/>
-      <c r="IK5" s="16"/>
-      <c r="IL5" s="16"/>
-      <c r="IM5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="14"/>
+      <c r="BV5" s="14"/>
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="14"/>
+      <c r="BZ5" s="14"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14"/>
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="14"/>
+      <c r="CE5" s="14"/>
+      <c r="CF5" s="14"/>
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14"/>
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="14"/>
+      <c r="CK5" s="14"/>
+      <c r="CL5" s="14"/>
+      <c r="CM5" s="14"/>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
+      <c r="CS5" s="14"/>
+      <c r="CT5" s="14"/>
+      <c r="CU5" s="14"/>
+      <c r="CV5" s="14"/>
+      <c r="CW5" s="14"/>
+      <c r="CX5" s="14"/>
+      <c r="CY5" s="14"/>
+      <c r="CZ5" s="14"/>
+      <c r="DA5" s="14"/>
+      <c r="DB5" s="14"/>
+      <c r="DC5" s="14"/>
+      <c r="DD5" s="14"/>
+      <c r="DE5" s="14"/>
+      <c r="DF5" s="14"/>
+      <c r="DG5" s="14"/>
+      <c r="DH5" s="14"/>
+      <c r="DI5" s="14"/>
+      <c r="DJ5" s="14"/>
+      <c r="DK5" s="14"/>
+      <c r="DL5" s="14"/>
+      <c r="DM5" s="14"/>
+      <c r="DN5" s="14"/>
+      <c r="DO5" s="14"/>
+      <c r="DP5" s="14"/>
+      <c r="DQ5" s="14"/>
+      <c r="DR5" s="14"/>
+      <c r="DS5" s="14"/>
+      <c r="DT5" s="14"/>
+      <c r="DU5" s="14"/>
+      <c r="DV5" s="14"/>
+      <c r="DW5" s="14"/>
+      <c r="DX5" s="14"/>
+      <c r="DY5" s="14"/>
+      <c r="DZ5" s="14"/>
+      <c r="EA5" s="14"/>
+      <c r="EB5" s="14"/>
+      <c r="EC5" s="14"/>
+      <c r="ED5" s="14"/>
+      <c r="EE5" s="14"/>
+      <c r="EF5" s="14"/>
+      <c r="EG5" s="14"/>
+      <c r="EH5" s="14"/>
+      <c r="EI5" s="14"/>
+      <c r="EJ5" s="14"/>
+      <c r="EK5" s="14"/>
+      <c r="EL5" s="14"/>
+      <c r="EM5" s="14"/>
+      <c r="EN5" s="14"/>
+      <c r="EO5" s="14"/>
+      <c r="EP5" s="14"/>
+      <c r="EQ5" s="14"/>
+      <c r="ER5" s="14"/>
+      <c r="ES5" s="14"/>
+      <c r="ET5" s="14"/>
+      <c r="EU5" s="14"/>
+      <c r="EV5" s="14"/>
+      <c r="EW5" s="14"/>
+      <c r="EX5" s="14"/>
+      <c r="EY5" s="14"/>
+      <c r="EZ5" s="14"/>
+      <c r="FA5" s="14"/>
+      <c r="FB5" s="14"/>
+      <c r="FC5" s="14"/>
+      <c r="FD5" s="14"/>
+      <c r="FE5" s="14"/>
+      <c r="FF5" s="14"/>
+      <c r="FG5" s="14"/>
+      <c r="FH5" s="14"/>
+      <c r="FI5" s="14"/>
+      <c r="FJ5" s="14"/>
+      <c r="FK5" s="14"/>
+      <c r="FL5" s="14"/>
+      <c r="FM5" s="14"/>
+      <c r="FN5" s="14"/>
+      <c r="FO5" s="14"/>
+      <c r="FP5" s="14"/>
+      <c r="FQ5" s="14"/>
+      <c r="FR5" s="14"/>
+      <c r="FS5" s="14"/>
+      <c r="FT5" s="14"/>
+      <c r="FU5" s="14"/>
+      <c r="FV5" s="14"/>
+      <c r="FW5" s="14"/>
+      <c r="FX5" s="14"/>
+      <c r="FY5" s="14"/>
+      <c r="FZ5" s="14"/>
+      <c r="GA5" s="14"/>
+      <c r="GB5" s="14"/>
+      <c r="GC5" s="14"/>
+      <c r="GD5" s="14"/>
+      <c r="GE5" s="14"/>
+      <c r="GF5" s="14"/>
+      <c r="GG5" s="14"/>
+      <c r="GH5" s="14"/>
+      <c r="GI5" s="14"/>
+      <c r="GJ5" s="14"/>
+      <c r="GK5" s="14"/>
+      <c r="GL5" s="14"/>
+      <c r="GM5" s="14"/>
+      <c r="GN5" s="14"/>
+      <c r="GO5" s="14"/>
+      <c r="GP5" s="14"/>
+      <c r="GQ5" s="14"/>
+      <c r="GR5" s="14"/>
+      <c r="GS5" s="14"/>
+      <c r="GT5" s="14"/>
+      <c r="GU5" s="14"/>
+      <c r="GV5" s="14"/>
+      <c r="GW5" s="14"/>
+      <c r="GX5" s="14"/>
+      <c r="GY5" s="14"/>
+      <c r="GZ5" s="14"/>
+      <c r="HA5" s="14"/>
+      <c r="HB5" s="14"/>
+      <c r="HC5" s="14"/>
+      <c r="HD5" s="14"/>
+      <c r="HE5" s="14"/>
+      <c r="HF5" s="14"/>
+      <c r="HG5" s="14"/>
+      <c r="HH5" s="14"/>
+      <c r="HI5" s="14"/>
+      <c r="HJ5" s="14"/>
+      <c r="HK5" s="14"/>
+      <c r="HL5" s="14"/>
+      <c r="HM5" s="14"/>
+      <c r="HN5" s="14"/>
+      <c r="HO5" s="14"/>
+      <c r="HP5" s="14"/>
+      <c r="HQ5" s="14"/>
+      <c r="HR5" s="14"/>
+      <c r="HS5" s="14"/>
+      <c r="HT5" s="14"/>
+      <c r="HU5" s="14"/>
+      <c r="HV5" s="14"/>
+      <c r="HW5" s="14"/>
+      <c r="HX5" s="14"/>
+      <c r="HY5" s="14"/>
+      <c r="HZ5" s="14"/>
+      <c r="IA5" s="14"/>
+      <c r="IB5" s="14"/>
+      <c r="IC5" s="14"/>
+      <c r="ID5" s="14"/>
+      <c r="IE5" s="14"/>
+      <c r="IF5" s="14"/>
+      <c r="IG5" s="14"/>
+      <c r="IH5" s="14"/>
+      <c r="II5" s="14"/>
+      <c r="IJ5" s="14"/>
+      <c r="IK5" s="14"/>
+      <c r="IL5" s="14"/>
+      <c r="IM5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Merge Linked List at Alternate Position</t>
+  </si>
+  <si>
+    <t>Puzzle on soccer ball</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -234,6 +240,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,8 +551,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +562,9 @@
     <col min="3" max="3" width="57" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="247" width="50.7109375" style="16" customWidth="1"/>
+    <col min="6" max="9" width="50.7109375" style="16" customWidth="1"/>
+    <col min="10" max="39" width="50.7109375" style="21" customWidth="1"/>
+    <col min="40" max="247" width="50.7109375" style="16" customWidth="1"/>
     <col min="248" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -582,94 +596,94 @@
       <c r="I1" s="1">
         <v>41565</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="20">
         <v>41566</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="20">
         <v>41567</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="20">
         <v>41568</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="20">
         <v>41569</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="20">
         <v>41570</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="20">
         <v>41571</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="20">
         <v>41572</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="20">
         <v>41573</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="20">
         <v>41574</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="20">
         <v>41575</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="20">
         <v>41576</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="20">
         <v>41577</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="20">
         <v>41578</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="20">
         <v>41579</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="20">
         <v>41580</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="20">
         <v>41581</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="20">
         <v>41582</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="20">
         <v>41583</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="20">
         <v>41584</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="20">
         <v>41585</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="20">
         <v>41586</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="20">
         <v>41587</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="20">
         <v>41588</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="20">
         <v>41589</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="20">
         <v>41590</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="20">
         <v>41591</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="20">
         <v>41592</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="20">
         <v>41593</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="20">
         <v>41594</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="20">
         <v>41595</v>
       </c>
       <c r="AN1" s="1">
@@ -1323,37 +1337,39 @@
       <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
@@ -1580,37 +1596,39 @@
         <v>18</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
@@ -1847,37 +1865,37 @@
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="4"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
@@ -2111,37 +2129,37 @@
       <c r="I5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="17"/>
       <c r="AO5" s="14"/>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Puzzle on soccer ball</t>
+  </si>
+  <si>
+    <t>Is Parent Sum of Children Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -551,8 +554,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN15" sqref="AN15"/>
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1373,9 @@
       <c r="AN2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="5"/>
+      <c r="AO2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
       <c r="AR2" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="20700" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO3" sqref="AO3"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,8 +1376,8 @@
       <c r="AO2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
       <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
       <c r="AT2" s="5"/>
@@ -1635,8 +1635,8 @@
         <v>24</v>
       </c>
       <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
@@ -1902,8 +1902,8 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -98,6 +98,20 @@
   </si>
   <si>
     <t>Is Parent Sum of Children Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Given an array of size N, move the first d elements to its last. 
+e.g. {1, 2, 3, 4, 5}, d=2 output: {3, 4, 5, 1, 2} </t>
+  </si>
+  <si>
+    <t>1-Puzzle</t>
+  </si>
+  <si>
+    <t>2.Find Nth largest element in the BST.</t>
+  </si>
+  <si>
+    <t>3.Given a linked list and 2 integers M and N.. 
+Keep M nodes and delete N nodes repetitively till the end of linkedlist.</t>
   </si>
 </sst>
 </file>
@@ -199,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -249,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,8 +571,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR3" sqref="AR3"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,9 +1395,15 @@
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
+      <c r="AR2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
@@ -1637,9 +1660,15 @@
       <c r="AO3" s="5"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
+      <c r="AR3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="AU3" s="5"/>
       <c r="AV3" s="5"/>
       <c r="AW3" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1395,10 +1395,10 @@
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
-      <c r="AR2" s="7" t="s">
+      <c r="AR2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="AT2" s="22" t="s">
@@ -1660,13 +1660,13 @@
       <c r="AO3" s="5"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-      <c r="AR3" s="7" t="s">
+      <c r="AR3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AS3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AT3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="AU3" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -112,6 +112,46 @@
   <si>
     <t>3.Given a linked list and 2 integers M and N.. 
 Keep M nodes and delete N nodes repetitively till the end of linkedlist.</t>
+  </si>
+  <si>
+    <t>video-5</t>
+  </si>
+  <si>
+    <t>video-6</t>
+  </si>
+  <si>
+    <t>video-7</t>
+  </si>
+  <si>
+    <t>video-8</t>
+  </si>
+  <si>
+    <t>video-9</t>
+  </si>
+  <si>
+    <t>video-10</t>
+  </si>
+  <si>
+    <t>video-11</t>
+  </si>
+  <si>
+    <t>5.A sorted array has been rotated r times to the left.
+ Find r in least possible time.</t>
+  </si>
+  <si>
+    <t>14.ConvertNoToWords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+13.Inorder Succesor With Root
+</t>
+  </si>
+  <si>
+    <t>BstOrNot</t>
+  </si>
+  <si>
+    <t>Given an array and two numbers x and y, 
+find minimum distance between two numbers x and y. assume that x and y always exist in array and it may be that x and y are same also…</t>
   </si>
 </sst>
 </file>
@@ -213,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -265,6 +305,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -571,8 +620,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS3" sqref="AS3"/>
+      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,13 +1460,23 @@
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
       <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
+      <c r="BB2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
       <c r="BI2" s="5"/>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
@@ -1676,13 +1735,19 @@
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
+      <c r="BB3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
       <c r="BI3" s="5"/>
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
@@ -1943,13 +2008,27 @@
       <c r="AY4" s="5"/>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
+      <c r="BB4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="BH4" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
       <c r="BK4" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="180" windowWidth="20700" windowHeight="9975"/>
@@ -157,8 +157,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,7 +405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -440,7 +439,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,15 +614,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB6" sqref="BB6"/>
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="16" customWidth="1"/>
@@ -637,7 +635,7 @@
     <col min="248" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:247" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1378,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" s="9" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" s="9" customFormat="1" ht="65.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1453,13 +1451,13 @@
       <c r="AT2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
       <c r="BB2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1665,7 +1663,7 @@
       <c r="IL2" s="5"/>
       <c r="IM2" s="5"/>
     </row>
-    <row r="3" spans="1:247" s="9" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" s="9" customFormat="1" ht="69.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1728,13 +1726,13 @@
       <c r="AT3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
       <c r="BB3" s="25" t="s">
         <v>29</v>
       </c>
@@ -1936,7 +1934,7 @@
       <c r="IL3" s="5"/>
       <c r="IM3" s="5"/>
     </row>
-    <row r="4" spans="1:247" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" s="9" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2215,7 @@
       <c r="IL4" s="5"/>
       <c r="IM4" s="5"/>
     </row>
-    <row r="5" spans="1:247" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:247" s="13" customFormat="1">
       <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2488,24 +2486,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="20700" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="20610" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -153,12 +153,40 @@
     <t>Given an array and two numbers x and y, 
 find minimum distance between two numbers x and y. assume that x and y always exist in array and it may be that x and y are same also…</t>
   </si>
+  <si>
+    <t>3.Given a linked list and 2 integers M and N.Keep M nodes and delete N nodes repetitively till the end of linkedlist.</t>
+  </si>
+  <si>
+    <r>
+      <t>2.Find Nth largest element in the BST.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trying it but sothapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +204,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB3" sqref="BB3"/>
+      <selection pane="topRight" activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1458,8 +1493,8 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
-      <c r="BB2" s="7" t="s">
-        <v>28</v>
+      <c r="BB2" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="BC2" s="23" t="s">
         <v>16</v>
@@ -1734,7 +1769,7 @@
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="25" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="BC3" s="24" t="s">
         <v>37</v>
@@ -2006,7 +2041,7 @@
       <c r="AY4" s="5"/>
       <c r="AZ4" s="5"/>
       <c r="BA4" s="5"/>
-      <c r="BB4" s="23" t="s">
+      <c r="BB4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="BC4" s="23" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -349,6 +349,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,7 +657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB10" sqref="BB10"/>
+      <selection pane="topRight" activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1768,7 +1771,7 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
-      <c r="BB3" s="25" t="s">
+      <c r="BB3" s="26" t="s">
         <v>42</v>
       </c>
       <c r="BC3" s="24" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -656,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA14" sqref="BA14"/>
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1774,7 +1774,7 @@
       <c r="BB3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="BC3" s="24" t="s">
+      <c r="BC3" s="19" t="s">
         <v>37</v>
       </c>
       <c r="BD3" s="23" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -179,6 +179,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given a BST , replace a node value with the sum of all the elements larger than the current node.-Execute </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( But Having Trouble Assigning Value , Logic is correct , Error at pointer arithmetic)</t>
     </r>
   </si>
 </sst>
@@ -657,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC3" sqref="BC3"/>
+      <selection pane="topRight" activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1499,8 +1514,8 @@
       <c r="BB2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BC2" s="23" t="s">
-        <v>16</v>
+      <c r="BC2" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="BD2" s="24" t="s">
         <v>39</v>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -671,8 +671,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC6" sqref="BC6"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BE8" sqref="BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1520,7 +1520,7 @@
       <c r="BD2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="23" t="s">
+      <c r="BE2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="BF2" s="24" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -672,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE8" sqref="BE8"/>
+      <selection pane="topRight" activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1517,7 +1517,7 @@
       <c r="BC2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BD2" s="24" t="s">
+      <c r="BD2" s="19" t="s">
         <v>39</v>
       </c>
       <c r="BE2" s="4" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -179,21 +179,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Given a BST , replace a node value with the sum of all the elements larger than the current node.-Execute </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>( But Having Trouble Assigning Value , Logic is correct , Error at pointer arithmetic)</t>
     </r>
   </si>
 </sst>
@@ -672,7 +657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD3" sqref="BD3"/>
+      <selection pane="topRight" activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,7 +1500,7 @@
         <v>43</v>
       </c>
       <c r="BC2" s="19" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="BD2" s="19" t="s">
         <v>39</v>
@@ -2062,16 +2047,16 @@
       <c r="BB4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BC4" s="23" t="s">
+      <c r="BC4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BD4" s="23" t="s">
+      <c r="BD4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BE4" s="23" t="s">
+      <c r="BE4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BF4" s="23" t="s">
+      <c r="BF4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="BG4" s="23" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="20610" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20610" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -181,12 +181,31 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Inorder succesor without root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a Binary Tree, print left view of it. Left view of a Binary Tree is set of nodes visible when tree is visited from left side. Left view of following tree is 12, 10, 25.
+          12
+       /     \
+     10       30
+            /    \
+          25      40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Two nodes of a BST are given. Print the path from 1st node to the 2nd node. 
+You are also provided the parent pointers in addition to normal left and right pointers.</t>
+  </si>
+  <si>
+    <t>1-puzzle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -352,6 +371,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,6 +465,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -477,6 +500,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,15 +676,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF2" sqref="BF2"/>
+      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="16" customWidth="1"/>
@@ -673,7 +698,7 @@
     <col min="248" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" s="6" customFormat="1">
+    <row r="1" spans="1:247" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1441,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" s="9" customFormat="1" ht="65.25" customHeight="1">
+    <row r="2" spans="1:247" s="9" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1513,11 +1538,21 @@
       </c>
       <c r="BG2" s="23"/>
       <c r="BH2" s="23"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
+      <c r="BI2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="BJ2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="BK2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM2" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
       <c r="BP2" s="5"/>
@@ -1701,7 +1736,7 @@
       <c r="IL2" s="5"/>
       <c r="IM2" s="5"/>
     </row>
-    <row r="3" spans="1:247" s="9" customFormat="1" ht="69.75" customHeight="1">
+    <row r="3" spans="1:247" s="9" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1784,11 +1819,15 @@
       <c r="BF3" s="23"/>
       <c r="BG3" s="23"/>
       <c r="BH3" s="23"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
+      <c r="BI3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
       <c r="BP3" s="5"/>
@@ -1972,7 +2011,7 @@
       <c r="IL3" s="5"/>
       <c r="IM3" s="5"/>
     </row>
-    <row r="4" spans="1:247" s="9" customFormat="1">
+    <row r="4" spans="1:247" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -2065,11 +2104,19 @@
       <c r="BH4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
+      <c r="BI4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ4" s="23"/>
+      <c r="BK4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM4" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
@@ -2253,7 +2300,7 @@
       <c r="IL4" s="5"/>
       <c r="IM4" s="5"/>
     </row>
-    <row r="5" spans="1:247" s="13" customFormat="1">
+    <row r="5" spans="1:247" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2524,24 +2571,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -200,12 +200,15 @@
   <si>
     <t>1-puzzle</t>
   </si>
+  <si>
+    <t>2.Find Nth largest element in the BST.(trying it but sothapping)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +233,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -374,6 +384,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,8 +694,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BL2" sqref="BL2"/>
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BC15" sqref="BC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +707,9 @@
     <col min="5" max="5" width="47.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="50.7109375" style="16" customWidth="1"/>
     <col min="10" max="39" width="50.7109375" style="21" customWidth="1"/>
-    <col min="40" max="247" width="50.7109375" style="16" customWidth="1"/>
+    <col min="40" max="63" width="50.7109375" style="16" customWidth="1"/>
+    <col min="64" max="64" width="49.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="65" max="247" width="50.7109375" style="16" customWidth="1"/>
     <col min="248" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -1521,8 +1536,8 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
-      <c r="BB2" s="25" t="s">
-        <v>43</v>
+      <c r="BB2" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="BC2" s="19" t="s">
         <v>16</v>
@@ -1533,7 +1548,7 @@
       <c r="BE2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="BG2" s="23"/>
@@ -2098,10 +2113,10 @@
       <c r="BF4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BG4" s="23" t="s">
+      <c r="BG4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BH4" s="23" t="s">
+      <c r="BH4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="BI4" s="23" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -373,12 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -694,8 +688,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC15" sqref="BC15"/>
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ9" sqref="BJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1530,7 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
-      <c r="BB2" s="28" t="s">
+      <c r="BB2" s="26" t="s">
         <v>48</v>
       </c>
       <c r="BC2" s="19" t="s">
@@ -1553,19 +1547,19 @@
       </c>
       <c r="BG2" s="23"/>
       <c r="BH2" s="23"/>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BK2" s="27" t="s">
+      <c r="BK2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BL2" s="27" t="s">
+      <c r="BL2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BM2" s="27" t="s">
+      <c r="BM2" s="25" t="s">
         <v>46</v>
       </c>
       <c r="BN2" s="5"/>
@@ -1821,23 +1815,23 @@
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
-      <c r="BB3" s="26" t="s">
+      <c r="BB3" s="24" t="s">
         <v>42</v>
       </c>
       <c r="BC3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="BD3" s="23" t="s">
+      <c r="BD3" s="3" t="s">
         <v>38</v>
       </c>
       <c r="BE3" s="23"/>
       <c r="BF3" s="23"/>
       <c r="BG3" s="23"/>
       <c r="BH3" s="23"/>
-      <c r="BI3" s="23" t="s">
+      <c r="BI3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BJ3" s="23" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="BK3" s="23"/>
@@ -2119,10 +2113,10 @@
       <c r="BH4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BI4" s="23" t="s">
+      <c r="BI4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BJ4" s="23"/>
+      <c r="BJ4" s="3"/>
       <c r="BK4" s="23" t="s">
         <v>47</v>
       </c>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -155,31 +155,6 @@
   </si>
   <si>
     <t>3.Given a linked list and 2 integers M and N.Keep M nodes and delete N nodes repetitively till the end of linkedlist.</t>
-  </si>
-  <si>
-    <r>
-      <t>2.Find Nth largest element in the BST.(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trying it but sothapping</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <t>Inorder succesor without root</t>
@@ -208,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +201,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -380,7 +348,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ9" sqref="BJ9"/>
+      <selection pane="topRight" activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1502,7 @@
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BC2" s="19" t="s">
         <v>16</v>
@@ -1548,19 +1519,19 @@
       <c r="BG2" s="23"/>
       <c r="BH2" s="23"/>
       <c r="BI2" s="22" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BM2" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="BM2" s="25" t="s">
-        <v>46</v>
       </c>
       <c r="BN2" s="5"/>
       <c r="BO2" s="5"/>
@@ -1832,9 +1803,9 @@
         <v>38</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK3" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="BK3" s="3"/>
       <c r="BL3" s="23"/>
       <c r="BM3" s="23"/>
       <c r="BN3" s="5"/>
@@ -2114,17 +2085,17 @@
         <v>36</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="23" t="s">
-        <v>47</v>
+      <c r="BK4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="BL4" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BM4" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -343,9 +343,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK13" sqref="BK13"/>
+      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BK7" sqref="BK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1498,7 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
-      <c r="BB2" s="26" t="s">
+      <c r="BB2" s="25" t="s">
         <v>47</v>
       </c>
       <c r="BC2" s="19" t="s">
@@ -1524,13 +1521,13 @@
       <c r="BJ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="BK2" s="27" t="s">
+      <c r="BK2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="BM2" s="25" t="s">
+      <c r="BM2" s="26" t="s">
         <v>45</v>
       </c>
       <c r="BN2" s="5"/>
@@ -1806,8 +1803,8 @@
         <v>46</v>
       </c>
       <c r="BK3" s="3"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
       <c r="BP3" s="5"/>
@@ -2091,10 +2088,10 @@
       <c r="BK4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BL4" s="23" t="s">
+      <c r="BL4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BM4" s="23" t="s">
+      <c r="BM4" s="3" t="s">
         <v>46</v>
       </c>
       <c r="BN4" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -656,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK7" sqref="BK7"/>
+      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,10 +1530,10 @@
       <c r="BM2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
       <c r="BR2" s="5"/>
       <c r="BS2" s="5"/>
       <c r="BT2" s="5"/>
@@ -1805,10 +1805,10 @@
       <c r="BK3" s="3"/>
       <c r="BL3" s="3"/>
       <c r="BM3" s="3"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
       <c r="BT3" s="5"/>
@@ -2094,10 +2094,10 @@
       <c r="BM4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
       <c r="BR4" s="5"/>
       <c r="BS4" s="5"/>
       <c r="BT4" s="5"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="240" windowWidth="20610" windowHeight="9915"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="My Track Till 13-Jun-2014" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -656,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM10" sqref="BM10"/>
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,8 +1534,8 @@
       <c r="BO2" s="3"/>
       <c r="BP2" s="3"/>
       <c r="BQ2" s="3"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
       <c r="BV2" s="5"/>
@@ -1809,8 +1809,8 @@
       <c r="BO3" s="3"/>
       <c r="BP3" s="3"/>
       <c r="BQ3" s="3"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
       <c r="BT3" s="5"/>
       <c r="BU3" s="5"/>
       <c r="BV3" s="5"/>
@@ -2098,8 +2098,8 @@
       <c r="BO4" s="3"/>
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
       <c r="BT4" s="5"/>
       <c r="BU4" s="5"/>
       <c r="BV4" s="5"/>
@@ -2362,8 +2362,8 @@
       <c r="BO5" s="14"/>
       <c r="BP5" s="14"/>
       <c r="BQ5" s="14"/>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="18"/>
       <c r="BT5" s="14"/>
       <c r="BU5" s="14"/>
       <c r="BV5" s="14"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -656,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR13" sqref="BR13"/>
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF8" sqref="CF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,43 +889,43 @@
       <c r="BS1" s="1">
         <v>41627</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="20">
         <v>41628</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="20">
         <v>41629</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BV1" s="20">
         <v>41630</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BW1" s="20">
         <v>41631</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BX1" s="20">
         <v>41632</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BY1" s="20">
         <v>41633</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="BZ1" s="20">
         <v>41634</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="CA1" s="20">
         <v>41635</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="CB1" s="20">
         <v>41636</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="CC1" s="20">
         <v>41637</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="CD1" s="20">
         <v>41638</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="CE1" s="20">
         <v>41639</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="CF1" s="20">
         <v>41640</v>
       </c>
       <c r="CG1" s="1">
@@ -1536,19 +1536,19 @@
       <c r="BQ2" s="3"/>
       <c r="BR2" s="3"/>
       <c r="BS2" s="3"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="5"/>
-      <c r="BZ2" s="5"/>
-      <c r="CA2" s="5"/>
-      <c r="CB2" s="5"/>
-      <c r="CC2" s="5"/>
-      <c r="CD2" s="5"/>
-      <c r="CE2" s="5"/>
-      <c r="CF2" s="5"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
       <c r="CG2" s="5"/>
       <c r="CH2" s="5"/>
       <c r="CI2" s="5"/>
@@ -1811,19 +1811,19 @@
       <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
       <c r="BS3" s="3"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="5"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
       <c r="CG3" s="5"/>
       <c r="CH3" s="5"/>
       <c r="CI3" s="5"/>
@@ -2100,19 +2100,19 @@
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3"/>
       <c r="BS4" s="3"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
       <c r="CG4" s="5"/>
       <c r="CH4" s="5"/>
       <c r="CI4" s="5"/>
@@ -2364,19 +2364,19 @@
       <c r="BQ5" s="14"/>
       <c r="BR5" s="18"/>
       <c r="BS5" s="18"/>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="14"/>
-      <c r="BV5" s="14"/>
-      <c r="BW5" s="14"/>
-      <c r="BX5" s="14"/>
-      <c r="BY5" s="14"/>
-      <c r="BZ5" s="14"/>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14"/>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="14"/>
-      <c r="CE5" s="14"/>
-      <c r="CF5" s="14"/>
+      <c r="BT5" s="18"/>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18"/>
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="18"/>
+      <c r="CA5" s="18"/>
+      <c r="CB5" s="18"/>
+      <c r="CC5" s="18"/>
+      <c r="CD5" s="18"/>
+      <c r="CE5" s="18"/>
+      <c r="CF5" s="18"/>
       <c r="CG5" s="14"/>
       <c r="CH5" s="14"/>
       <c r="CI5" s="14"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -656,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF8" sqref="CF8"/>
+      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI10" sqref="CI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,10 +1549,10 @@
       <c r="CD2" s="3"/>
       <c r="CE2" s="3"/>
       <c r="CF2" s="3"/>
-      <c r="CG2" s="5"/>
-      <c r="CH2" s="5"/>
-      <c r="CI2" s="5"/>
-      <c r="CJ2" s="5"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
       <c r="CK2" s="5"/>
       <c r="CL2" s="5"/>
       <c r="CM2" s="5"/>
@@ -1824,10 +1824,10 @@
       <c r="CD3" s="3"/>
       <c r="CE3" s="3"/>
       <c r="CF3" s="3"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
       <c r="CK3" s="5"/>
       <c r="CL3" s="5"/>
       <c r="CM3" s="5"/>
@@ -2113,10 +2113,10 @@
       <c r="CD4" s="3"/>
       <c r="CE4" s="3"/>
       <c r="CF4" s="3"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5"/>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
       <c r="CK4" s="5"/>
       <c r="CL4" s="5"/>
       <c r="CM4" s="5"/>
@@ -2377,10 +2377,10 @@
       <c r="CD5" s="18"/>
       <c r="CE5" s="18"/>
       <c r="CF5" s="18"/>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14"/>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="14"/>
+      <c r="CG5" s="18"/>
+      <c r="CH5" s="18"/>
+      <c r="CI5" s="18"/>
+      <c r="CJ5" s="18"/>
       <c r="CK5" s="14"/>
       <c r="CL5" s="14"/>
       <c r="CM5" s="14"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -656,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CI10" sqref="CI10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CK7" sqref="CK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,9 +1553,9 @@
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
-      <c r="CK2" s="5"/>
-      <c r="CL2" s="5"/>
-      <c r="CM2" s="5"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
       <c r="CN2" s="5"/>
       <c r="CO2" s="5"/>
       <c r="CP2" s="5"/>
@@ -1828,9 +1828,9 @@
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
       <c r="CN3" s="5"/>
       <c r="CO3" s="5"/>
       <c r="CP3" s="5"/>
@@ -2117,9 +2117,9 @@
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
       <c r="CN4" s="5"/>
       <c r="CO4" s="5"/>
       <c r="CP4" s="5"/>
@@ -2381,9 +2381,9 @@
       <c r="CH5" s="18"/>
       <c r="CI5" s="18"/>
       <c r="CJ5" s="18"/>
-      <c r="CK5" s="14"/>
-      <c r="CL5" s="14"/>
-      <c r="CM5" s="14"/>
+      <c r="CK5" s="18"/>
+      <c r="CL5" s="18"/>
+      <c r="CM5" s="18"/>
       <c r="CN5" s="14"/>
       <c r="CO5" s="14"/>
       <c r="CP5" s="14"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -656,8 +656,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CK7" sqref="CK7"/>
+      <pane xSplit="1" topLeftCell="CO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CM12" sqref="CM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1556,7 @@
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
       <c r="CM2" s="3"/>
-      <c r="CN2" s="5"/>
+      <c r="CN2" s="3"/>
       <c r="CO2" s="5"/>
       <c r="CP2" s="5"/>
       <c r="CQ2" s="5"/>
@@ -1831,7 +1831,7 @@
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
       <c r="CM3" s="3"/>
-      <c r="CN3" s="5"/>
+      <c r="CN3" s="3"/>
       <c r="CO3" s="5"/>
       <c r="CP3" s="5"/>
       <c r="CQ3" s="5"/>
@@ -2120,7 +2120,7 @@
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
       <c r="CM4" s="3"/>
-      <c r="CN4" s="5"/>
+      <c r="CN4" s="3"/>
       <c r="CO4" s="5"/>
       <c r="CP4" s="5"/>
       <c r="CQ4" s="5"/>
@@ -2384,7 +2384,7 @@
       <c r="CK5" s="18"/>
       <c r="CL5" s="18"/>
       <c r="CM5" s="18"/>
-      <c r="CN5" s="14"/>
+      <c r="CN5" s="18"/>
       <c r="CO5" s="14"/>
       <c r="CP5" s="14"/>
       <c r="CQ5" s="14"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -184,7 +184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,7 +660,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CO2" sqref="CO2:CO5"/>
+      <selection pane="topRight" activeCell="CN8" sqref="CN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,9 +1561,9 @@
       <c r="CM2" s="26"/>
       <c r="CN2" s="2"/>
       <c r="CO2" s="2"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
       <c r="CS2" s="4"/>
       <c r="CT2" s="4"/>
       <c r="CU2" s="4"/>
@@ -1836,9 +1836,9 @@
       <c r="CM3" s="2"/>
       <c r="CN3" s="2"/>
       <c r="CO3" s="2"/>
-      <c r="CP3" s="4"/>
-      <c r="CQ3" s="4"/>
-      <c r="CR3" s="4"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
       <c r="CS3" s="4"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
@@ -2125,9 +2125,9 @@
       <c r="CM4" s="2"/>
       <c r="CN4" s="2"/>
       <c r="CO4" s="2"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
       <c r="CS4" s="4"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
@@ -2389,9 +2389,9 @@
       <c r="CM5" s="17"/>
       <c r="CN5" s="17"/>
       <c r="CO5" s="17"/>
-      <c r="CP5" s="13"/>
-      <c r="CQ5" s="13"/>
-      <c r="CR5" s="13"/>
+      <c r="CP5" s="17"/>
+      <c r="CQ5" s="17"/>
+      <c r="CR5" s="17"/>
       <c r="CS5" s="13"/>
       <c r="CT5" s="13"/>
       <c r="CU5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -659,8 +659,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CN8" sqref="CN8"/>
+      <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CT6" sqref="CT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,7 @@
       <c r="CP2" s="2"/>
       <c r="CQ2" s="2"/>
       <c r="CR2" s="2"/>
-      <c r="CS2" s="4"/>
+      <c r="CS2" s="2"/>
       <c r="CT2" s="4"/>
       <c r="CU2" s="4"/>
       <c r="CV2" s="4"/>
@@ -1839,7 +1839,7 @@
       <c r="CP3" s="2"/>
       <c r="CQ3" s="2"/>
       <c r="CR3" s="2"/>
-      <c r="CS3" s="4"/>
+      <c r="CS3" s="2"/>
       <c r="CT3" s="4"/>
       <c r="CU3" s="4"/>
       <c r="CV3" s="4"/>
@@ -2128,7 +2128,7 @@
       <c r="CP4" s="2"/>
       <c r="CQ4" s="2"/>
       <c r="CR4" s="2"/>
-      <c r="CS4" s="4"/>
+      <c r="CS4" s="2"/>
       <c r="CT4" s="4"/>
       <c r="CU4" s="4"/>
       <c r="CV4" s="4"/>
@@ -2392,7 +2392,7 @@
       <c r="CP5" s="17"/>
       <c r="CQ5" s="17"/>
       <c r="CR5" s="17"/>
-      <c r="CS5" s="13"/>
+      <c r="CS5" s="17"/>
       <c r="CT5" s="13"/>
       <c r="CU5" s="13"/>
       <c r="CV5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -659,8 +659,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CT6" sqref="CT6"/>
+      <pane xSplit="1" topLeftCell="CS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CU2" sqref="CU2:CU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,8 +1565,8 @@
       <c r="CQ2" s="2"/>
       <c r="CR2" s="2"/>
       <c r="CS2" s="2"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
       <c r="CV2" s="4"/>
       <c r="CW2" s="4"/>
       <c r="CX2" s="4"/>
@@ -1840,8 +1840,8 @@
       <c r="CQ3" s="2"/>
       <c r="CR3" s="2"/>
       <c r="CS3" s="2"/>
-      <c r="CT3" s="4"/>
-      <c r="CU3" s="4"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
       <c r="CV3" s="4"/>
       <c r="CW3" s="4"/>
       <c r="CX3" s="4"/>
@@ -2129,8 +2129,8 @@
       <c r="CQ4" s="2"/>
       <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
-      <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
       <c r="CV4" s="4"/>
       <c r="CW4" s="4"/>
       <c r="CX4" s="4"/>
@@ -2393,8 +2393,8 @@
       <c r="CQ5" s="17"/>
       <c r="CR5" s="17"/>
       <c r="CS5" s="17"/>
-      <c r="CT5" s="13"/>
-      <c r="CU5" s="13"/>
+      <c r="CT5" s="17"/>
+      <c r="CU5" s="17"/>
       <c r="CV5" s="13"/>
       <c r="CW5" s="13"/>
       <c r="CX5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -659,8 +659,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CU2" sqref="CU2:CU5"/>
+      <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV9" sqref="CV9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,9 +1567,9 @@
       <c r="CS2" s="2"/>
       <c r="CT2" s="2"/>
       <c r="CU2" s="2"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
       <c r="CY2" s="4"/>
       <c r="CZ2" s="4"/>
       <c r="DA2" s="4"/>
@@ -1842,9 +1842,9 @@
       <c r="CS3" s="2"/>
       <c r="CT3" s="2"/>
       <c r="CU3" s="2"/>
-      <c r="CV3" s="4"/>
-      <c r="CW3" s="4"/>
-      <c r="CX3" s="4"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2"/>
       <c r="CY3" s="4"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
@@ -2131,9 +2131,9 @@
       <c r="CS4" s="2"/>
       <c r="CT4" s="2"/>
       <c r="CU4" s="2"/>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-      <c r="CX4" s="4"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
       <c r="CY4" s="4"/>
       <c r="CZ4" s="4"/>
       <c r="DA4" s="4"/>
@@ -2395,9 +2395,9 @@
       <c r="CS5" s="17"/>
       <c r="CT5" s="17"/>
       <c r="CU5" s="17"/>
-      <c r="CV5" s="13"/>
-      <c r="CW5" s="13"/>
-      <c r="CX5" s="13"/>
+      <c r="CV5" s="17"/>
+      <c r="CW5" s="17"/>
+      <c r="CX5" s="17"/>
       <c r="CY5" s="13"/>
       <c r="CZ5" s="13"/>
       <c r="DA5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -659,8 +659,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV9" sqref="CV9"/>
+      <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CZ2" sqref="CZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1570,7 @@
       <c r="CV2" s="2"/>
       <c r="CW2" s="2"/>
       <c r="CX2" s="2"/>
-      <c r="CY2" s="4"/>
+      <c r="CY2" s="2"/>
       <c r="CZ2" s="4"/>
       <c r="DA2" s="4"/>
       <c r="DB2" s="4"/>
@@ -1845,7 +1845,7 @@
       <c r="CV3" s="2"/>
       <c r="CW3" s="2"/>
       <c r="CX3" s="2"/>
-      <c r="CY3" s="4"/>
+      <c r="CY3" s="2"/>
       <c r="CZ3" s="4"/>
       <c r="DA3" s="4"/>
       <c r="DB3" s="4"/>
@@ -2134,7 +2134,7 @@
       <c r="CV4" s="2"/>
       <c r="CW4" s="2"/>
       <c r="CX4" s="2"/>
-      <c r="CY4" s="4"/>
+      <c r="CY4" s="2"/>
       <c r="CZ4" s="4"/>
       <c r="DA4" s="4"/>
       <c r="DB4" s="4"/>
@@ -2398,7 +2398,7 @@
       <c r="CV5" s="17"/>
       <c r="CW5" s="17"/>
       <c r="CX5" s="17"/>
-      <c r="CY5" s="13"/>
+      <c r="CY5" s="17"/>
       <c r="CZ5" s="13"/>
       <c r="DA5" s="13"/>
       <c r="DB5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>2.Find Nth largest element in the BST.(trying it but sothapping)</t>
+  </si>
+  <si>
+    <t>Basics of Tree Problems</t>
+  </si>
+  <si>
+    <t>Basics of Linked List Problems</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CZ2" sqref="CZ2"/>
+      <selection pane="topRight" activeCell="CZ4" sqref="CZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1577,9 @@
       <c r="CW2" s="2"/>
       <c r="CX2" s="2"/>
       <c r="CY2" s="2"/>
-      <c r="CZ2" s="4"/>
+      <c r="CZ2" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="DA2" s="4"/>
       <c r="DB2" s="4"/>
       <c r="DC2" s="4"/>
@@ -1846,7 +1854,9 @@
       <c r="CW3" s="2"/>
       <c r="CX3" s="2"/>
       <c r="CY3" s="2"/>
-      <c r="CZ3" s="4"/>
+      <c r="CZ3" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="DA3" s="4"/>
       <c r="DB3" s="4"/>
       <c r="DC3" s="4"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Basics of Linked List Problems</t>
+  </si>
+  <si>
+    <t>Tree to Linked List</t>
+  </si>
+  <si>
+    <t>Print Tree Paths</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CZ4" sqref="CZ4"/>
+      <selection pane="topRight" activeCell="CZ12" sqref="CZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,10 +1583,12 @@
       <c r="CW2" s="2"/>
       <c r="CX2" s="2"/>
       <c r="CY2" s="2"/>
-      <c r="CZ2" s="4" t="s">
+      <c r="CZ2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="DA2" s="4"/>
+      <c r="DA2" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="DB2" s="4"/>
       <c r="DC2" s="4"/>
       <c r="DD2" s="4"/>
@@ -1854,10 +1862,12 @@
       <c r="CW3" s="2"/>
       <c r="CX3" s="2"/>
       <c r="CY3" s="2"/>
-      <c r="CZ3" s="4" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="DA3" s="4"/>
+      <c r="DA3" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="DB3" s="4"/>
       <c r="DC3" s="4"/>
       <c r="DD3" s="4"/>
@@ -2145,8 +2155,8 @@
       <c r="CW4" s="2"/>
       <c r="CX4" s="2"/>
       <c r="CY4" s="2"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
+      <c r="CZ4" s="3"/>
+      <c r="DA4" s="3"/>
       <c r="DB4" s="4"/>
       <c r="DC4" s="4"/>
       <c r="DD4" s="4"/>
@@ -2409,8 +2419,8 @@
       <c r="CW5" s="17"/>
       <c r="CX5" s="17"/>
       <c r="CY5" s="17"/>
-      <c r="CZ5" s="13"/>
-      <c r="DA5" s="13"/>
+      <c r="CZ5" s="16"/>
+      <c r="DA5" s="16"/>
       <c r="DB5" s="13"/>
       <c r="DC5" s="13"/>
       <c r="DD5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -671,8 +671,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CZ12" sqref="CZ12"/>
+      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DE8" sqref="DE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,10 +1589,10 @@
       <c r="DA2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="2"/>
       <c r="DF2" s="4"/>
       <c r="DG2" s="4"/>
       <c r="DH2" s="4"/>
@@ -1868,10 +1868,10 @@
       <c r="DA3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="DB3" s="4"/>
-      <c r="DC3" s="4"/>
-      <c r="DD3" s="4"/>
-      <c r="DE3" s="4"/>
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="2"/>
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
       <c r="DH3" s="4"/>
@@ -2157,10 +2157,10 @@
       <c r="CY4" s="2"/>
       <c r="CZ4" s="3"/>
       <c r="DA4" s="3"/>
-      <c r="DB4" s="4"/>
-      <c r="DC4" s="4"/>
-      <c r="DD4" s="4"/>
-      <c r="DE4" s="4"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
       <c r="DF4" s="4"/>
       <c r="DG4" s="4"/>
       <c r="DH4" s="4"/>
@@ -2421,10 +2421,10 @@
       <c r="CY5" s="17"/>
       <c r="CZ5" s="16"/>
       <c r="DA5" s="16"/>
-      <c r="DB5" s="13"/>
-      <c r="DC5" s="13"/>
-      <c r="DD5" s="13"/>
-      <c r="DE5" s="13"/>
+      <c r="DB5" s="17"/>
+      <c r="DC5" s="17"/>
+      <c r="DD5" s="17"/>
+      <c r="DE5" s="17"/>
       <c r="DF5" s="13"/>
       <c r="DG5" s="13"/>
       <c r="DH5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -671,8 +671,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DE8" sqref="DE8"/>
+      <pane xSplit="1" topLeftCell="DG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DG11" sqref="DG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,8 +1593,8 @@
       <c r="DC2" s="2"/>
       <c r="DD2" s="2"/>
       <c r="DE2" s="2"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
+      <c r="DF2" s="2"/>
+      <c r="DG2" s="2"/>
       <c r="DH2" s="4"/>
       <c r="DI2" s="4"/>
       <c r="DJ2" s="4"/>
@@ -1872,8 +1872,8 @@
       <c r="DC3" s="2"/>
       <c r="DD3" s="2"/>
       <c r="DE3" s="2"/>
-      <c r="DF3" s="4"/>
-      <c r="DG3" s="4"/>
+      <c r="DF3" s="2"/>
+      <c r="DG3" s="2"/>
       <c r="DH3" s="4"/>
       <c r="DI3" s="4"/>
       <c r="DJ3" s="4"/>
@@ -2161,8 +2161,8 @@
       <c r="DC4" s="2"/>
       <c r="DD4" s="2"/>
       <c r="DE4" s="2"/>
-      <c r="DF4" s="4"/>
-      <c r="DG4" s="4"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4" s="2"/>
       <c r="DH4" s="4"/>
       <c r="DI4" s="4"/>
       <c r="DJ4" s="4"/>
@@ -2425,8 +2425,8 @@
       <c r="DC5" s="17"/>
       <c r="DD5" s="17"/>
       <c r="DE5" s="17"/>
-      <c r="DF5" s="13"/>
-      <c r="DG5" s="13"/>
+      <c r="DF5" s="17"/>
+      <c r="DG5" s="17"/>
       <c r="DH5" s="13"/>
       <c r="DI5" s="13"/>
       <c r="DJ5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -671,8 +671,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DG11" sqref="DG11"/>
+      <pane xSplit="1" topLeftCell="DJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DJ8" sqref="DJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,11 +1595,11 @@
       <c r="DE2" s="2"/>
       <c r="DF2" s="2"/>
       <c r="DG2" s="2"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
+      <c r="DH2" s="2"/>
+      <c r="DI2" s="2"/>
+      <c r="DJ2" s="2"/>
+      <c r="DK2" s="2"/>
+      <c r="DL2" s="2"/>
       <c r="DM2" s="4"/>
       <c r="DN2" s="4"/>
       <c r="DO2" s="4"/>
@@ -1874,11 +1874,11 @@
       <c r="DE3" s="2"/>
       <c r="DF3" s="2"/>
       <c r="DG3" s="2"/>
-      <c r="DH3" s="4"/>
-      <c r="DI3" s="4"/>
-      <c r="DJ3" s="4"/>
-      <c r="DK3" s="4"/>
-      <c r="DL3" s="4"/>
+      <c r="DH3" s="2"/>
+      <c r="DI3" s="2"/>
+      <c r="DJ3" s="2"/>
+      <c r="DK3" s="2"/>
+      <c r="DL3" s="2"/>
       <c r="DM3" s="4"/>
       <c r="DN3" s="4"/>
       <c r="DO3" s="4"/>
@@ -2163,11 +2163,11 @@
       <c r="DE4" s="2"/>
       <c r="DF4" s="2"/>
       <c r="DG4" s="2"/>
-      <c r="DH4" s="4"/>
-      <c r="DI4" s="4"/>
-      <c r="DJ4" s="4"/>
-      <c r="DK4" s="4"/>
-      <c r="DL4" s="4"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
       <c r="DM4" s="4"/>
       <c r="DN4" s="4"/>
       <c r="DO4" s="4"/>
@@ -2427,11 +2427,11 @@
       <c r="DE5" s="17"/>
       <c r="DF5" s="17"/>
       <c r="DG5" s="17"/>
-      <c r="DH5" s="13"/>
-      <c r="DI5" s="13"/>
-      <c r="DJ5" s="13"/>
-      <c r="DK5" s="13"/>
-      <c r="DL5" s="13"/>
+      <c r="DH5" s="17"/>
+      <c r="DI5" s="17"/>
+      <c r="DJ5" s="17"/>
+      <c r="DK5" s="17"/>
+      <c r="DL5" s="17"/>
       <c r="DM5" s="13"/>
       <c r="DN5" s="13"/>
       <c r="DO5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -671,8 +671,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DJ8" sqref="DJ8"/>
+      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DM12" sqref="DM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1600,7 @@
       <c r="DJ2" s="2"/>
       <c r="DK2" s="2"/>
       <c r="DL2" s="2"/>
-      <c r="DM2" s="4"/>
+      <c r="DM2" s="2"/>
       <c r="DN2" s="4"/>
       <c r="DO2" s="4"/>
       <c r="DP2" s="4"/>
@@ -1879,7 +1879,7 @@
       <c r="DJ3" s="2"/>
       <c r="DK3" s="2"/>
       <c r="DL3" s="2"/>
-      <c r="DM3" s="4"/>
+      <c r="DM3" s="2"/>
       <c r="DN3" s="4"/>
       <c r="DO3" s="4"/>
       <c r="DP3" s="4"/>
@@ -2168,7 +2168,7 @@
       <c r="DJ4" s="2"/>
       <c r="DK4" s="2"/>
       <c r="DL4" s="2"/>
-      <c r="DM4" s="4"/>
+      <c r="DM4" s="2"/>
       <c r="DN4" s="4"/>
       <c r="DO4" s="4"/>
       <c r="DP4" s="4"/>
@@ -2432,7 +2432,7 @@
       <c r="DJ5" s="17"/>
       <c r="DK5" s="17"/>
       <c r="DL5" s="17"/>
-      <c r="DM5" s="13"/>
+      <c r="DM5" s="17"/>
       <c r="DN5" s="13"/>
       <c r="DO5" s="13"/>
       <c r="DP5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Print Tree Paths</t>
+  </si>
+  <si>
+    <t>1.Create Linked List-</t>
+  </si>
+  <si>
+    <t>       2 ways   1.start 2.End</t>
+  </si>
+  <si>
+    <t>2.Create Binary Tree</t>
+  </si>
+  <si>
+    <t>3.Create Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -300,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -365,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DM12" sqref="DM12"/>
+      <selection pane="topRight" activeCell="DN6" sqref="DN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1616,9 @@
       <c r="DK2" s="2"/>
       <c r="DL2" s="2"/>
       <c r="DM2" s="2"/>
-      <c r="DN2" s="4"/>
+      <c r="DN2" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="DO2" s="4"/>
       <c r="DP2" s="4"/>
       <c r="DQ2" s="4"/>
@@ -1880,7 +1897,9 @@
       <c r="DK3" s="2"/>
       <c r="DL3" s="2"/>
       <c r="DM3" s="2"/>
-      <c r="DN3" s="4"/>
+      <c r="DN3" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="DO3" s="4"/>
       <c r="DP3" s="4"/>
       <c r="DQ3" s="4"/>
@@ -2169,7 +2188,9 @@
       <c r="DK4" s="2"/>
       <c r="DL4" s="2"/>
       <c r="DM4" s="2"/>
-      <c r="DN4" s="4"/>
+      <c r="DN4" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="DO4" s="4"/>
       <c r="DP4" s="4"/>
       <c r="DQ4" s="4"/>
@@ -2433,7 +2454,9 @@
       <c r="DK5" s="17"/>
       <c r="DL5" s="17"/>
       <c r="DM5" s="17"/>
-      <c r="DN5" s="13"/>
+      <c r="DN5" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="DO5" s="13"/>
       <c r="DP5" s="13"/>
       <c r="DQ5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -378,7 +378,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DN6" sqref="DN6"/>
+      <selection pane="topRight" activeCell="DN4" sqref="DN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2191,7 @@
       <c r="DK4" s="2"/>
       <c r="DL4" s="2"/>
       <c r="DM4" s="2"/>
-      <c r="DN4" s="27" t="s">
+      <c r="DN4" s="28" t="s">
         <v>54</v>
       </c>
       <c r="DO4" s="4"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -379,9 +379,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,8 +686,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DN4" sqref="DN4"/>
+      <pane xSplit="1" topLeftCell="DR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DT15" sqref="DT15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,11 +1619,11 @@
       <c r="DN2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="DO2" s="4"/>
-      <c r="DP2" s="4"/>
-      <c r="DQ2" s="4"/>
-      <c r="DR2" s="4"/>
-      <c r="DS2" s="4"/>
+      <c r="DO2" s="2"/>
+      <c r="DP2" s="2"/>
+      <c r="DQ2" s="2"/>
+      <c r="DR2" s="2"/>
+      <c r="DS2" s="2"/>
       <c r="DT2" s="4"/>
       <c r="DU2" s="4"/>
       <c r="DV2" s="4"/>
@@ -1903,11 +1900,11 @@
       <c r="DN3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="DO3" s="4"/>
-      <c r="DP3" s="4"/>
-      <c r="DQ3" s="4"/>
-      <c r="DR3" s="4"/>
-      <c r="DS3" s="4"/>
+      <c r="DO3" s="2"/>
+      <c r="DP3" s="2"/>
+      <c r="DQ3" s="2"/>
+      <c r="DR3" s="2"/>
+      <c r="DS3" s="2"/>
       <c r="DT3" s="4"/>
       <c r="DU3" s="4"/>
       <c r="DV3" s="4"/>
@@ -2191,14 +2188,14 @@
       <c r="DK4" s="2"/>
       <c r="DL4" s="2"/>
       <c r="DM4" s="2"/>
-      <c r="DN4" s="28" t="s">
+      <c r="DN4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="DO4" s="4"/>
-      <c r="DP4" s="4"/>
-      <c r="DQ4" s="4"/>
-      <c r="DR4" s="4"/>
-      <c r="DS4" s="4"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
       <c r="DT4" s="4"/>
       <c r="DU4" s="4"/>
       <c r="DV4" s="4"/>
@@ -2460,11 +2457,11 @@
       <c r="DN5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="DO5" s="13"/>
-      <c r="DP5" s="13"/>
-      <c r="DQ5" s="13"/>
-      <c r="DR5" s="13"/>
-      <c r="DS5" s="13"/>
+      <c r="DO5" s="17"/>
+      <c r="DP5" s="17"/>
+      <c r="DQ5" s="17"/>
+      <c r="DR5" s="17"/>
+      <c r="DS5" s="17"/>
       <c r="DT5" s="13"/>
       <c r="DU5" s="13"/>
       <c r="DV5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>3.Create Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Level Order Traversal -1 
+2) Level Order Traversal - using queue
+3)Left View
+4)You are involved in a betting game whose rules are as follows : a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1; b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous. c) game ends when all the rounds are complete or you dont have sufficient sum. Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1." 
+Find the sum
+</t>
   </si>
 </sst>
 </file>
@@ -312,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -380,6 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,8 +697,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DT15" sqref="DT15"/>
+      <pane xSplit="1" topLeftCell="DV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DX15" sqref="DX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,11 +1635,13 @@
       <c r="DQ2" s="2"/>
       <c r="DR2" s="2"/>
       <c r="DS2" s="2"/>
-      <c r="DT2" s="4"/>
-      <c r="DU2" s="4"/>
-      <c r="DV2" s="4"/>
-      <c r="DW2" s="4"/>
-      <c r="DX2" s="4"/>
+      <c r="DT2" s="2"/>
+      <c r="DU2" s="2"/>
+      <c r="DV2" s="2"/>
+      <c r="DW2" s="2"/>
+      <c r="DX2" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="DY2" s="4"/>
       <c r="DZ2" s="4"/>
       <c r="EA2" s="4"/>
@@ -1905,10 +1918,10 @@
       <c r="DQ3" s="2"/>
       <c r="DR3" s="2"/>
       <c r="DS3" s="2"/>
-      <c r="DT3" s="4"/>
-      <c r="DU3" s="4"/>
-      <c r="DV3" s="4"/>
-      <c r="DW3" s="4"/>
+      <c r="DT3" s="2"/>
+      <c r="DU3" s="2"/>
+      <c r="DV3" s="2"/>
+      <c r="DW3" s="2"/>
       <c r="DX3" s="4"/>
       <c r="DY3" s="4"/>
       <c r="DZ3" s="4"/>
@@ -2196,10 +2209,10 @@
       <c r="DQ4" s="2"/>
       <c r="DR4" s="2"/>
       <c r="DS4" s="2"/>
-      <c r="DT4" s="4"/>
-      <c r="DU4" s="4"/>
-      <c r="DV4" s="4"/>
-      <c r="DW4" s="4"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
       <c r="DX4" s="4"/>
       <c r="DY4" s="4"/>
       <c r="DZ4" s="4"/>
@@ -2462,10 +2475,10 @@
       <c r="DQ5" s="17"/>
       <c r="DR5" s="17"/>
       <c r="DS5" s="17"/>
-      <c r="DT5" s="13"/>
-      <c r="DU5" s="13"/>
-      <c r="DV5" s="13"/>
-      <c r="DW5" s="13"/>
+      <c r="DT5" s="17"/>
+      <c r="DU5" s="17"/>
+      <c r="DV5" s="17"/>
+      <c r="DW5" s="17"/>
       <c r="DX5" s="13"/>
       <c r="DY5" s="13"/>
       <c r="DZ5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -209,6 +209,14 @@
 4)You are involved in a betting game whose rules are as follows : a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1; b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous. c) game ends when all the rounds are complete or you dont have sufficient sum. Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1." 
 Find the sum
 </t>
+  </si>
+  <si>
+    <t>Given two trees check if they are mirror images of each other or not.
+" Find the distance between two nodes in a binary tree, no parent pointers are given</t>
+  </si>
+  <si>
+    <t>Given a Binary tree and a arbitrary node of that tree ,
+ find all the nodes at a Distance of K from that Node .Nodes DON’T have parent pointers.( Algo + Code )</t>
   </si>
 </sst>
 </file>
@@ -218,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +251,13 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -389,8 +404,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +724,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DX15" sqref="DX15"/>
+      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DY3" sqref="DY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,8 +1669,12 @@
       <c r="DX2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="DY2" s="4"/>
-      <c r="DZ2" s="4"/>
+      <c r="DY2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="DZ2" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="EA2" s="4"/>
       <c r="EB2" s="4"/>
       <c r="EC2" s="4"/>
@@ -1922,9 +1953,9 @@
       <c r="DU3" s="2"/>
       <c r="DV3" s="2"/>
       <c r="DW3" s="2"/>
-      <c r="DX3" s="4"/>
-      <c r="DY3" s="4"/>
-      <c r="DZ3" s="4"/>
+      <c r="DX3" s="21"/>
+      <c r="DY3" s="21"/>
+      <c r="DZ3" s="31"/>
       <c r="EA3" s="4"/>
       <c r="EB3" s="4"/>
       <c r="EC3" s="4"/>
@@ -2213,9 +2244,9 @@
       <c r="DU4" s="2"/>
       <c r="DV4" s="2"/>
       <c r="DW4" s="2"/>
-      <c r="DX4" s="4"/>
-      <c r="DY4" s="4"/>
-      <c r="DZ4" s="4"/>
+      <c r="DX4" s="21"/>
+      <c r="DY4" s="21"/>
+      <c r="DZ4" s="21"/>
       <c r="EA4" s="4"/>
       <c r="EB4" s="4"/>
       <c r="EC4" s="4"/>
@@ -2479,9 +2510,9 @@
       <c r="DU5" s="17"/>
       <c r="DV5" s="17"/>
       <c r="DW5" s="17"/>
-      <c r="DX5" s="13"/>
-      <c r="DY5" s="13"/>
-      <c r="DZ5" s="13"/>
+      <c r="DX5" s="30"/>
+      <c r="DY5" s="30"/>
+      <c r="DZ5" s="30"/>
       <c r="EA5" s="13"/>
       <c r="EB5" s="13"/>
       <c r="EC5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -203,20 +203,20 @@
     <t>3.Create Binary Search Tree</t>
   </si>
   <si>
+    <t>Given a Binary tree and a arbitrary node of that tree ,
+ find all the nodes at a Distance of K from that Node .Nodes DON’T have parent pointers.( Algo + Code )</t>
+  </si>
+  <si>
     <t xml:space="preserve">1)Level Order Traversal -1 
 2) Level Order Traversal - using queue
 3)Left View
-4)You are involved in a betting game whose rules are as follows : a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1; b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous. c) game ends when all the rounds are complete or you dont have sufficient sum. Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1." 
-Find the sum
 </t>
   </si>
   <si>
-    <t>Given two trees check if they are mirror images of each other or not.
-" Find the distance between two nodes in a binary tree, no parent pointers are given</t>
-  </si>
-  <si>
-    <t>Given a Binary tree and a arbitrary node of that tree ,
- find all the nodes at a Distance of K from that Node .Nodes DON’T have parent pointers.( Algo + Code )</t>
+    <t>1)Given two trees check if they are mirror images of each other or not.
+" Find the distance between two nodes in a binary tree, no parent pointers are given
+2)You are involved in a betting game whose rules are as follows : a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1; b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous. c) game ends when all the rounds are complete or you dont have sufficient sum. Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1." 
+Find the sum</t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -403,9 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -725,7 +722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DY3" sqref="DY3"/>
+      <selection pane="topRight" activeCell="DZ2" sqref="DZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,14 +1663,14 @@
       <c r="DU2" s="2"/>
       <c r="DV2" s="2"/>
       <c r="DW2" s="2"/>
-      <c r="DX2" s="28" t="s">
+      <c r="DX2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="DY2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="DY2" s="32" t="s">
+      <c r="DZ2" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="DZ2" s="29" t="s">
-        <v>57</v>
       </c>
       <c r="EA2" s="4"/>
       <c r="EB2" s="4"/>
@@ -1953,9 +1950,9 @@
       <c r="DU3" s="2"/>
       <c r="DV3" s="2"/>
       <c r="DW3" s="2"/>
-      <c r="DX3" s="21"/>
+      <c r="DX3" s="3"/>
       <c r="DY3" s="21"/>
-      <c r="DZ3" s="31"/>
+      <c r="DZ3" s="30"/>
       <c r="EA3" s="4"/>
       <c r="EB3" s="4"/>
       <c r="EC3" s="4"/>
@@ -2244,7 +2241,7 @@
       <c r="DU4" s="2"/>
       <c r="DV4" s="2"/>
       <c r="DW4" s="2"/>
-      <c r="DX4" s="21"/>
+      <c r="DX4" s="3"/>
       <c r="DY4" s="21"/>
       <c r="DZ4" s="21"/>
       <c r="EA4" s="4"/>
@@ -2510,9 +2507,9 @@
       <c r="DU5" s="17"/>
       <c r="DV5" s="17"/>
       <c r="DW5" s="17"/>
-      <c r="DX5" s="30"/>
-      <c r="DY5" s="30"/>
-      <c r="DZ5" s="30"/>
+      <c r="DX5" s="16"/>
+      <c r="DY5" s="29"/>
+      <c r="DZ5" s="29"/>
       <c r="EA5" s="13"/>
       <c r="EB5" s="13"/>
       <c r="EC5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -207,16 +207,27 @@
  find all the nodes at a Distance of K from that Node .Nodes DON’T have parent pointers.( Algo + Code )</t>
   </si>
   <si>
+    <t xml:space="preserve">1)Given two trees check if they are mirror images of each other or not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Find the distance between two nodes in a binary tree, no parent pointers are given
+</t>
+  </si>
+  <si>
+    <t>3)You are involved in a betting game whose rules are as follows : a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1; b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous. c) game ends when all the rounds are complete or you dont have sufficient sum. Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1." 
+Find the sum</t>
+  </si>
+  <si>
     <t xml:space="preserve">1)Level Order Traversal -1 
-2) Level Order Traversal - using queue
-3)Left View
 </t>
   </si>
   <si>
-    <t>1)Given two trees check if they are mirror images of each other or not.
-" Find the distance between two nodes in a binary tree, no parent pointers are given
-2)You are involved in a betting game whose rules are as follows : a) if you win a round, the bet amount will be added to your sum and next bet amount will be $1; b) if you lose a round, the bet amount will be reduced from your total sum and next bet will be twice the previous. c) game ends when all the rounds are complete or you dont have sufficient sum. Initially, you are given with a string of the form “WLWWL” where W indicates a win and L indicates a loss and initial sum. Initial bet amount will be $1." 
-Find the sum</t>
+    <t xml:space="preserve">2) Level Order Traversal - using queue
+</t>
+  </si>
+  <si>
+    <t>3)Left View</t>
   </si>
 </sst>
 </file>
@@ -410,10 +421,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1483,7 +1494,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" s="8" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1664,13 +1675,13 @@
       <c r="DV2" s="2"/>
       <c r="DW2" s="2"/>
       <c r="DX2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="DY2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="DZ2" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="DY2" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="DZ2" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="EA2" s="4"/>
       <c r="EB2" s="4"/>
@@ -1790,7 +1801,7 @@
       <c r="IL2" s="4"/>
       <c r="IM2" s="4"/>
     </row>
-    <row r="3" spans="1:247" s="8" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1950,9 +1961,13 @@
       <c r="DU3" s="2"/>
       <c r="DV3" s="2"/>
       <c r="DW3" s="2"/>
-      <c r="DX3" s="3"/>
+      <c r="DX3" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="DY3" s="21"/>
-      <c r="DZ3" s="30"/>
+      <c r="DZ3" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="EA3" s="4"/>
       <c r="EB3" s="4"/>
       <c r="EC3" s="4"/>
@@ -2071,7 +2086,7 @@
       <c r="IL3" s="4"/>
       <c r="IM3" s="4"/>
     </row>
-    <row r="4" spans="1:247" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -2241,9 +2256,13 @@
       <c r="DU4" s="2"/>
       <c r="DV4" s="2"/>
       <c r="DW4" s="2"/>
-      <c r="DX4" s="3"/>
+      <c r="DX4" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="DY4" s="21"/>
-      <c r="DZ4" s="21"/>
+      <c r="DZ4" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="EA4" s="4"/>
       <c r="EB4" s="4"/>
       <c r="EC4" s="4"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -415,9 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -425,6 +422,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1677,10 +1677,10 @@
       <c r="DX2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="DY2" s="30" t="s">
+      <c r="DY2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="DZ2" s="28" t="s">
+      <c r="DZ2" s="31" t="s">
         <v>57</v>
       </c>
       <c r="EA2" s="4"/>
@@ -1965,7 +1965,7 @@
         <v>61</v>
       </c>
       <c r="DY3" s="21"/>
-      <c r="DZ3" s="31" t="s">
+      <c r="DZ3" s="30" t="s">
         <v>58</v>
       </c>
       <c r="EA3" s="4"/>
@@ -2527,8 +2527,8 @@
       <c r="DV5" s="17"/>
       <c r="DW5" s="17"/>
       <c r="DX5" s="16"/>
-      <c r="DY5" s="29"/>
-      <c r="DZ5" s="29"/>
+      <c r="DY5" s="28"/>
+      <c r="DZ5" s="28"/>
       <c r="EA5" s="13"/>
       <c r="EB5" s="13"/>
       <c r="EC5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -346,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -414,9 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -732,8 +729,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DZ2" sqref="DZ2"/>
+      <pane xSplit="1" topLeftCell="DY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DZ14" sqref="DZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,14 +1674,14 @@
       <c r="DX2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="DY2" s="29" t="s">
+      <c r="DY2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="DZ2" s="31" t="s">
+      <c r="DZ2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="EA2" s="4"/>
-      <c r="EB2" s="4"/>
+      <c r="EA2" s="2"/>
+      <c r="EB2" s="2"/>
       <c r="EC2" s="4"/>
       <c r="ED2" s="4"/>
       <c r="EE2" s="4"/>
@@ -1964,12 +1961,12 @@
       <c r="DX3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="DY3" s="21"/>
-      <c r="DZ3" s="30" t="s">
+      <c r="DY3" s="3"/>
+      <c r="DZ3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="EA3" s="4"/>
-      <c r="EB3" s="4"/>
+      <c r="EA3" s="2"/>
+      <c r="EB3" s="2"/>
       <c r="EC3" s="4"/>
       <c r="ED3" s="4"/>
       <c r="EE3" s="4"/>
@@ -2259,12 +2256,12 @@
       <c r="DX4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="DY4" s="21"/>
+      <c r="DY4" s="3"/>
       <c r="DZ4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="EA4" s="4"/>
-      <c r="EB4" s="4"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="2"/>
       <c r="EC4" s="4"/>
       <c r="ED4" s="4"/>
       <c r="EE4" s="4"/>
@@ -2527,10 +2524,10 @@
       <c r="DV5" s="17"/>
       <c r="DW5" s="17"/>
       <c r="DX5" s="16"/>
-      <c r="DY5" s="28"/>
-      <c r="DZ5" s="28"/>
-      <c r="EA5" s="13"/>
-      <c r="EB5" s="13"/>
+      <c r="DY5" s="16"/>
+      <c r="DZ5" s="16"/>
+      <c r="EA5" s="17"/>
+      <c r="EB5" s="17"/>
       <c r="EC5" s="13"/>
       <c r="ED5" s="13"/>
       <c r="EE5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -729,8 +729,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DZ14" sqref="DZ14"/>
+      <pane xSplit="1" topLeftCell="EG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EI6" sqref="EI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="EA2" s="2"/>
       <c r="EB2" s="2"/>
-      <c r="EC2" s="4"/>
-      <c r="ED2" s="4"/>
-      <c r="EE2" s="4"/>
-      <c r="EF2" s="4"/>
-      <c r="EG2" s="4"/>
-      <c r="EH2" s="4"/>
+      <c r="EC2" s="2"/>
+      <c r="ED2" s="2"/>
+      <c r="EE2" s="2"/>
+      <c r="EF2" s="2"/>
+      <c r="EG2" s="2"/>
+      <c r="EH2" s="2"/>
       <c r="EI2" s="4"/>
       <c r="EJ2" s="4"/>
       <c r="EK2" s="4"/>
@@ -1967,12 +1967,12 @@
       </c>
       <c r="EA3" s="2"/>
       <c r="EB3" s="2"/>
-      <c r="EC3" s="4"/>
-      <c r="ED3" s="4"/>
-      <c r="EE3" s="4"/>
-      <c r="EF3" s="4"/>
-      <c r="EG3" s="4"/>
-      <c r="EH3" s="4"/>
+      <c r="EC3" s="2"/>
+      <c r="ED3" s="2"/>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="2"/>
+      <c r="EG3" s="2"/>
+      <c r="EH3" s="2"/>
       <c r="EI3" s="4"/>
       <c r="EJ3" s="4"/>
       <c r="EK3" s="4"/>
@@ -2262,12 +2262,12 @@
       </c>
       <c r="EA4" s="2"/>
       <c r="EB4" s="2"/>
-      <c r="EC4" s="4"/>
-      <c r="ED4" s="4"/>
-      <c r="EE4" s="4"/>
-      <c r="EF4" s="4"/>
-      <c r="EG4" s="4"/>
-      <c r="EH4" s="4"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
       <c r="EI4" s="4"/>
       <c r="EJ4" s="4"/>
       <c r="EK4" s="4"/>
@@ -2528,12 +2528,12 @@
       <c r="DZ5" s="16"/>
       <c r="EA5" s="17"/>
       <c r="EB5" s="17"/>
-      <c r="EC5" s="13"/>
-      <c r="ED5" s="13"/>
-      <c r="EE5" s="13"/>
-      <c r="EF5" s="13"/>
-      <c r="EG5" s="13"/>
-      <c r="EH5" s="13"/>
+      <c r="EC5" s="17"/>
+      <c r="ED5" s="17"/>
+      <c r="EE5" s="17"/>
+      <c r="EF5" s="17"/>
+      <c r="EG5" s="17"/>
+      <c r="EH5" s="17"/>
       <c r="EI5" s="13"/>
       <c r="EJ5" s="13"/>
       <c r="EK5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -729,8 +729,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EI6" sqref="EI6"/>
+      <pane xSplit="1" topLeftCell="EP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EH10" sqref="EH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,16 +1688,16 @@
       <c r="EF2" s="2"/>
       <c r="EG2" s="2"/>
       <c r="EH2" s="2"/>
-      <c r="EI2" s="4"/>
-      <c r="EJ2" s="4"/>
-      <c r="EK2" s="4"/>
-      <c r="EL2" s="4"/>
-      <c r="EM2" s="4"/>
-      <c r="EN2" s="4"/>
-      <c r="EO2" s="4"/>
-      <c r="EP2" s="4"/>
-      <c r="EQ2" s="4"/>
-      <c r="ER2" s="4"/>
+      <c r="EI2" s="2"/>
+      <c r="EJ2" s="2"/>
+      <c r="EK2" s="2"/>
+      <c r="EL2" s="2"/>
+      <c r="EM2" s="2"/>
+      <c r="EN2" s="2"/>
+      <c r="EO2" s="2"/>
+      <c r="EP2" s="2"/>
+      <c r="EQ2" s="2"/>
+      <c r="ER2" s="2"/>
       <c r="ES2" s="4"/>
       <c r="ET2" s="4"/>
       <c r="EU2" s="4"/>
@@ -1973,16 +1973,16 @@
       <c r="EF3" s="2"/>
       <c r="EG3" s="2"/>
       <c r="EH3" s="2"/>
-      <c r="EI3" s="4"/>
-      <c r="EJ3" s="4"/>
-      <c r="EK3" s="4"/>
-      <c r="EL3" s="4"/>
-      <c r="EM3" s="4"/>
-      <c r="EN3" s="4"/>
-      <c r="EO3" s="4"/>
-      <c r="EP3" s="4"/>
-      <c r="EQ3" s="4"/>
-      <c r="ER3" s="4"/>
+      <c r="EI3" s="2"/>
+      <c r="EJ3" s="2"/>
+      <c r="EK3" s="2"/>
+      <c r="EL3" s="2"/>
+      <c r="EM3" s="2"/>
+      <c r="EN3" s="2"/>
+      <c r="EO3" s="2"/>
+      <c r="EP3" s="2"/>
+      <c r="EQ3" s="2"/>
+      <c r="ER3" s="2"/>
       <c r="ES3" s="4"/>
       <c r="ET3" s="4"/>
       <c r="EU3" s="4"/>
@@ -2268,16 +2268,16 @@
       <c r="EF4" s="2"/>
       <c r="EG4" s="2"/>
       <c r="EH4" s="2"/>
-      <c r="EI4" s="4"/>
-      <c r="EJ4" s="4"/>
-      <c r="EK4" s="4"/>
-      <c r="EL4" s="4"/>
-      <c r="EM4" s="4"/>
-      <c r="EN4" s="4"/>
-      <c r="EO4" s="4"/>
-      <c r="EP4" s="4"/>
-      <c r="EQ4" s="4"/>
-      <c r="ER4" s="4"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2"/>
       <c r="ES4" s="4"/>
       <c r="ET4" s="4"/>
       <c r="EU4" s="4"/>
@@ -2534,16 +2534,16 @@
       <c r="EF5" s="17"/>
       <c r="EG5" s="17"/>
       <c r="EH5" s="17"/>
-      <c r="EI5" s="13"/>
-      <c r="EJ5" s="13"/>
-      <c r="EK5" s="13"/>
-      <c r="EL5" s="13"/>
-      <c r="EM5" s="13"/>
-      <c r="EN5" s="13"/>
-      <c r="EO5" s="13"/>
-      <c r="EP5" s="13"/>
-      <c r="EQ5" s="13"/>
-      <c r="ER5" s="13"/>
+      <c r="EI5" s="17"/>
+      <c r="EJ5" s="17"/>
+      <c r="EK5" s="17"/>
+      <c r="EL5" s="17"/>
+      <c r="EM5" s="17"/>
+      <c r="EN5" s="17"/>
+      <c r="EO5" s="17"/>
+      <c r="EP5" s="17"/>
+      <c r="EQ5" s="17"/>
+      <c r="ER5" s="17"/>
       <c r="ES5" s="13"/>
       <c r="ET5" s="13"/>
       <c r="EU5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -729,8 +729,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EH10" sqref="EH10"/>
+      <pane xSplit="1" topLeftCell="EV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ES2" sqref="ES2:EX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,12 +1698,12 @@
       <c r="EP2" s="2"/>
       <c r="EQ2" s="2"/>
       <c r="ER2" s="2"/>
-      <c r="ES2" s="4"/>
-      <c r="ET2" s="4"/>
-      <c r="EU2" s="4"/>
-      <c r="EV2" s="4"/>
-      <c r="EW2" s="4"/>
-      <c r="EX2" s="4"/>
+      <c r="ES2" s="2"/>
+      <c r="ET2" s="2"/>
+      <c r="EU2" s="2"/>
+      <c r="EV2" s="2"/>
+      <c r="EW2" s="2"/>
+      <c r="EX2" s="2"/>
       <c r="EY2" s="4"/>
       <c r="EZ2" s="4"/>
       <c r="FA2" s="4"/>
@@ -1983,12 +1983,12 @@
       <c r="EP3" s="2"/>
       <c r="EQ3" s="2"/>
       <c r="ER3" s="2"/>
-      <c r="ES3" s="4"/>
-      <c r="ET3" s="4"/>
-      <c r="EU3" s="4"/>
-      <c r="EV3" s="4"/>
-      <c r="EW3" s="4"/>
-      <c r="EX3" s="4"/>
+      <c r="ES3" s="2"/>
+      <c r="ET3" s="2"/>
+      <c r="EU3" s="2"/>
+      <c r="EV3" s="2"/>
+      <c r="EW3" s="2"/>
+      <c r="EX3" s="2"/>
       <c r="EY3" s="4"/>
       <c r="EZ3" s="4"/>
       <c r="FA3" s="4"/>
@@ -2278,12 +2278,12 @@
       <c r="EP4" s="2"/>
       <c r="EQ4" s="2"/>
       <c r="ER4" s="2"/>
-      <c r="ES4" s="4"/>
-      <c r="ET4" s="4"/>
-      <c r="EU4" s="4"/>
-      <c r="EV4" s="4"/>
-      <c r="EW4" s="4"/>
-      <c r="EX4" s="4"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
       <c r="EY4" s="4"/>
       <c r="EZ4" s="4"/>
       <c r="FA4" s="4"/>
@@ -2544,12 +2544,12 @@
       <c r="EP5" s="17"/>
       <c r="EQ5" s="17"/>
       <c r="ER5" s="17"/>
-      <c r="ES5" s="13"/>
-      <c r="ET5" s="13"/>
-      <c r="EU5" s="13"/>
-      <c r="EV5" s="13"/>
-      <c r="EW5" s="13"/>
-      <c r="EX5" s="13"/>
+      <c r="ES5" s="17"/>
+      <c r="ET5" s="17"/>
+      <c r="EU5" s="17"/>
+      <c r="EV5" s="17"/>
+      <c r="EW5" s="17"/>
+      <c r="EX5" s="17"/>
       <c r="EY5" s="13"/>
       <c r="EZ5" s="13"/>
       <c r="FA5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -729,8 +729,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ES2" sqref="ES2:EX5"/>
+      <pane xSplit="1" topLeftCell="EZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EZ10" sqref="EZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,8 +1704,8 @@
       <c r="EV2" s="2"/>
       <c r="EW2" s="2"/>
       <c r="EX2" s="2"/>
-      <c r="EY2" s="4"/>
-      <c r="EZ2" s="4"/>
+      <c r="EY2" s="2"/>
+      <c r="EZ2" s="2"/>
       <c r="FA2" s="4"/>
       <c r="FB2" s="4"/>
       <c r="FC2" s="4"/>
@@ -1989,8 +1989,8 @@
       <c r="EV3" s="2"/>
       <c r="EW3" s="2"/>
       <c r="EX3" s="2"/>
-      <c r="EY3" s="4"/>
-      <c r="EZ3" s="4"/>
+      <c r="EY3" s="2"/>
+      <c r="EZ3" s="2"/>
       <c r="FA3" s="4"/>
       <c r="FB3" s="4"/>
       <c r="FC3" s="4"/>
@@ -2284,8 +2284,8 @@
       <c r="EV4" s="2"/>
       <c r="EW4" s="2"/>
       <c r="EX4" s="2"/>
-      <c r="EY4" s="4"/>
-      <c r="EZ4" s="4"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2"/>
       <c r="FA4" s="4"/>
       <c r="FB4" s="4"/>
       <c r="FC4" s="4"/>
@@ -2550,8 +2550,8 @@
       <c r="EV5" s="17"/>
       <c r="EW5" s="17"/>
       <c r="EX5" s="17"/>
-      <c r="EY5" s="13"/>
-      <c r="EZ5" s="13"/>
+      <c r="EY5" s="17"/>
+      <c r="EZ5" s="17"/>
       <c r="FA5" s="13"/>
       <c r="FB5" s="13"/>
       <c r="FC5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>3)Left View</t>
+  </si>
+  <si>
+    <t>1)Permutation of a String or Not</t>
+  </si>
+  <si>
+    <t>2)Determine a String has Unique Characters or not,Without Additional Data Structures</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="EZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EZ10" sqref="EZ10"/>
+      <selection pane="topRight" activeCell="FB4" sqref="FB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,8 +1712,10 @@
       <c r="EX2" s="2"/>
       <c r="EY2" s="2"/>
       <c r="EZ2" s="2"/>
-      <c r="FA2" s="4"/>
-      <c r="FB2" s="4"/>
+      <c r="FA2" s="2"/>
+      <c r="FB2" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="FC2" s="4"/>
       <c r="FD2" s="4"/>
       <c r="FE2" s="4"/>
@@ -1991,8 +1999,10 @@
       <c r="EX3" s="2"/>
       <c r="EY3" s="2"/>
       <c r="EZ3" s="2"/>
-      <c r="FA3" s="4"/>
-      <c r="FB3" s="4"/>
+      <c r="FA3" s="2"/>
+      <c r="FB3" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="FC3" s="4"/>
       <c r="FD3" s="4"/>
       <c r="FE3" s="4"/>
@@ -2286,8 +2296,8 @@
       <c r="EX4" s="2"/>
       <c r="EY4" s="2"/>
       <c r="EZ4" s="2"/>
-      <c r="FA4" s="4"/>
-      <c r="FB4" s="4"/>
+      <c r="FA4" s="2"/>
+      <c r="FB4" s="3"/>
       <c r="FC4" s="4"/>
       <c r="FD4" s="4"/>
       <c r="FE4" s="4"/>
@@ -2552,8 +2562,8 @@
       <c r="EX5" s="17"/>
       <c r="EY5" s="17"/>
       <c r="EZ5" s="17"/>
-      <c r="FA5" s="13"/>
-      <c r="FB5" s="13"/>
+      <c r="FA5" s="17"/>
+      <c r="FB5" s="16"/>
       <c r="FC5" s="13"/>
       <c r="FD5" s="13"/>
       <c r="FE5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20610" windowHeight="9915"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -235,15 +235,29 @@
   <si>
     <t>2)Determine a String has Unique Characters or not,Without Additional Data Structures</t>
   </si>
+  <si>
+    <t>3)Service Lane</t>
+  </si>
+  <si>
+    <t>4)Filling Jars</t>
+  </si>
+  <si>
+    <t>HackerRank:
+1)IsFibo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2)Haloween Party</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,7 +533,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -554,7 +567,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,16 +742,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FB4" sqref="FB4"/>
+      <pane xSplit="1" topLeftCell="GG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GH11" sqref="GH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="15" customWidth="1"/>
@@ -754,7 +766,7 @@
     <col min="248" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:247" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:247" s="8" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1716,38 +1728,40 @@
       <c r="FB2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="FC2" s="4"/>
-      <c r="FD2" s="4"/>
-      <c r="FE2" s="4"/>
-      <c r="FF2" s="4"/>
-      <c r="FG2" s="4"/>
-      <c r="FH2" s="4"/>
-      <c r="FI2" s="4"/>
-      <c r="FJ2" s="4"/>
-      <c r="FK2" s="4"/>
-      <c r="FL2" s="4"/>
-      <c r="FM2" s="4"/>
-      <c r="FN2" s="4"/>
-      <c r="FO2" s="4"/>
-      <c r="FP2" s="4"/>
-      <c r="FQ2" s="4"/>
-      <c r="FR2" s="4"/>
-      <c r="FS2" s="4"/>
-      <c r="FT2" s="4"/>
-      <c r="FU2" s="4"/>
-      <c r="FV2" s="4"/>
-      <c r="FW2" s="4"/>
-      <c r="FX2" s="4"/>
-      <c r="FY2" s="4"/>
-      <c r="FZ2" s="4"/>
-      <c r="GA2" s="4"/>
-      <c r="GB2" s="4"/>
-      <c r="GC2" s="4"/>
-      <c r="GD2" s="4"/>
-      <c r="GE2" s="4"/>
-      <c r="GF2" s="4"/>
-      <c r="GG2" s="4"/>
-      <c r="GH2" s="4"/>
+      <c r="FC2" s="2"/>
+      <c r="FD2" s="2"/>
+      <c r="FE2" s="2"/>
+      <c r="FF2" s="2"/>
+      <c r="FG2" s="2"/>
+      <c r="FH2" s="2"/>
+      <c r="FI2" s="2"/>
+      <c r="FJ2" s="2"/>
+      <c r="FK2" s="2"/>
+      <c r="FL2" s="2"/>
+      <c r="FM2" s="2"/>
+      <c r="FN2" s="2"/>
+      <c r="FO2" s="2"/>
+      <c r="FP2" s="2"/>
+      <c r="FQ2" s="2"/>
+      <c r="FR2" s="2"/>
+      <c r="FS2" s="2"/>
+      <c r="FT2" s="2"/>
+      <c r="FU2" s="2"/>
+      <c r="FV2" s="2"/>
+      <c r="FW2" s="2"/>
+      <c r="FX2" s="2"/>
+      <c r="FY2" s="2"/>
+      <c r="FZ2" s="2"/>
+      <c r="GA2" s="2"/>
+      <c r="GB2" s="2"/>
+      <c r="GC2" s="2"/>
+      <c r="GD2" s="2"/>
+      <c r="GE2" s="2"/>
+      <c r="GF2" s="2"/>
+      <c r="GG2" s="2"/>
+      <c r="GH2" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="GI2" s="4"/>
       <c r="GJ2" s="4"/>
       <c r="GK2" s="4"/>
@@ -1806,7 +1820,7 @@
       <c r="IL2" s="4"/>
       <c r="IM2" s="4"/>
     </row>
-    <row r="3" spans="1:247" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -2003,38 +2017,40 @@
       <c r="FB3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="FC3" s="4"/>
-      <c r="FD3" s="4"/>
-      <c r="FE3" s="4"/>
-      <c r="FF3" s="4"/>
-      <c r="FG3" s="4"/>
-      <c r="FH3" s="4"/>
-      <c r="FI3" s="4"/>
-      <c r="FJ3" s="4"/>
-      <c r="FK3" s="4"/>
-      <c r="FL3" s="4"/>
-      <c r="FM3" s="4"/>
-      <c r="FN3" s="4"/>
-      <c r="FO3" s="4"/>
-      <c r="FP3" s="4"/>
-      <c r="FQ3" s="4"/>
-      <c r="FR3" s="4"/>
-      <c r="FS3" s="4"/>
-      <c r="FT3" s="4"/>
-      <c r="FU3" s="4"/>
-      <c r="FV3" s="4"/>
-      <c r="FW3" s="4"/>
-      <c r="FX3" s="4"/>
-      <c r="FY3" s="4"/>
-      <c r="FZ3" s="4"/>
-      <c r="GA3" s="4"/>
-      <c r="GB3" s="4"/>
-      <c r="GC3" s="4"/>
-      <c r="GD3" s="4"/>
-      <c r="GE3" s="4"/>
-      <c r="GF3" s="4"/>
-      <c r="GG3" s="4"/>
-      <c r="GH3" s="4"/>
+      <c r="FC3" s="2"/>
+      <c r="FD3" s="2"/>
+      <c r="FE3" s="2"/>
+      <c r="FF3" s="2"/>
+      <c r="FG3" s="2"/>
+      <c r="FH3" s="2"/>
+      <c r="FI3" s="2"/>
+      <c r="FJ3" s="2"/>
+      <c r="FK3" s="2"/>
+      <c r="FL3" s="2"/>
+      <c r="FM3" s="2"/>
+      <c r="FN3" s="2"/>
+      <c r="FO3" s="2"/>
+      <c r="FP3" s="2"/>
+      <c r="FQ3" s="2"/>
+      <c r="FR3" s="2"/>
+      <c r="FS3" s="2"/>
+      <c r="FT3" s="2"/>
+      <c r="FU3" s="2"/>
+      <c r="FV3" s="2"/>
+      <c r="FW3" s="2"/>
+      <c r="FX3" s="2"/>
+      <c r="FY3" s="2"/>
+      <c r="FZ3" s="2"/>
+      <c r="GA3" s="2"/>
+      <c r="GB3" s="2"/>
+      <c r="GC3" s="2"/>
+      <c r="GD3" s="2"/>
+      <c r="GE3" s="2"/>
+      <c r="GF3" s="2"/>
+      <c r="GG3" s="2"/>
+      <c r="GH3" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="GI3" s="4"/>
       <c r="GJ3" s="4"/>
       <c r="GK3" s="4"/>
@@ -2093,7 +2109,7 @@
       <c r="IL3" s="4"/>
       <c r="IM3" s="4"/>
     </row>
-    <row r="4" spans="1:247" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" s="8" customFormat="1" ht="39.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -2298,38 +2314,40 @@
       <c r="EZ4" s="2"/>
       <c r="FA4" s="2"/>
       <c r="FB4" s="3"/>
-      <c r="FC4" s="4"/>
-      <c r="FD4" s="4"/>
-      <c r="FE4" s="4"/>
-      <c r="FF4" s="4"/>
-      <c r="FG4" s="4"/>
-      <c r="FH4" s="4"/>
-      <c r="FI4" s="4"/>
-      <c r="FJ4" s="4"/>
-      <c r="FK4" s="4"/>
-      <c r="FL4" s="4"/>
-      <c r="FM4" s="4"/>
-      <c r="FN4" s="4"/>
-      <c r="FO4" s="4"/>
-      <c r="FP4" s="4"/>
-      <c r="FQ4" s="4"/>
-      <c r="FR4" s="4"/>
-      <c r="FS4" s="4"/>
-      <c r="FT4" s="4"/>
-      <c r="FU4" s="4"/>
-      <c r="FV4" s="4"/>
-      <c r="FW4" s="4"/>
-      <c r="FX4" s="4"/>
-      <c r="FY4" s="4"/>
-      <c r="FZ4" s="4"/>
-      <c r="GA4" s="4"/>
-      <c r="GB4" s="4"/>
-      <c r="GC4" s="4"/>
-      <c r="GD4" s="4"/>
-      <c r="GE4" s="4"/>
-      <c r="GF4" s="4"/>
-      <c r="GG4" s="4"/>
-      <c r="GH4" s="4"/>
+      <c r="FC4" s="2"/>
+      <c r="FD4" s="2"/>
+      <c r="FE4" s="2"/>
+      <c r="FF4" s="2"/>
+      <c r="FG4" s="2"/>
+      <c r="FH4" s="2"/>
+      <c r="FI4" s="2"/>
+      <c r="FJ4" s="2"/>
+      <c r="FK4" s="2"/>
+      <c r="FL4" s="2"/>
+      <c r="FM4" s="2"/>
+      <c r="FN4" s="2"/>
+      <c r="FO4" s="2"/>
+      <c r="FP4" s="2"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4" s="2"/>
+      <c r="FS4" s="2"/>
+      <c r="FT4" s="2"/>
+      <c r="FU4" s="2"/>
+      <c r="FV4" s="2"/>
+      <c r="FW4" s="2"/>
+      <c r="FX4" s="2"/>
+      <c r="FY4" s="2"/>
+      <c r="FZ4" s="2"/>
+      <c r="GA4" s="2"/>
+      <c r="GB4" s="2"/>
+      <c r="GC4" s="2"/>
+      <c r="GD4" s="2"/>
+      <c r="GE4" s="2"/>
+      <c r="GF4" s="2"/>
+      <c r="GG4" s="2"/>
+      <c r="GH4" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="GI4" s="4"/>
       <c r="GJ4" s="4"/>
       <c r="GK4" s="4"/>
@@ -2388,7 +2406,7 @@
       <c r="IL4" s="4"/>
       <c r="IM4" s="4"/>
     </row>
-    <row r="5" spans="1:247" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:247" s="12" customFormat="1">
       <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
@@ -2564,38 +2582,40 @@
       <c r="EZ5" s="17"/>
       <c r="FA5" s="17"/>
       <c r="FB5" s="16"/>
-      <c r="FC5" s="13"/>
-      <c r="FD5" s="13"/>
-      <c r="FE5" s="13"/>
-      <c r="FF5" s="13"/>
-      <c r="FG5" s="13"/>
-      <c r="FH5" s="13"/>
-      <c r="FI5" s="13"/>
-      <c r="FJ5" s="13"/>
-      <c r="FK5" s="13"/>
-      <c r="FL5" s="13"/>
-      <c r="FM5" s="13"/>
-      <c r="FN5" s="13"/>
-      <c r="FO5" s="13"/>
-      <c r="FP5" s="13"/>
-      <c r="FQ5" s="13"/>
-      <c r="FR5" s="13"/>
-      <c r="FS5" s="13"/>
-      <c r="FT5" s="13"/>
-      <c r="FU5" s="13"/>
-      <c r="FV5" s="13"/>
-      <c r="FW5" s="13"/>
-      <c r="FX5" s="13"/>
-      <c r="FY5" s="13"/>
-      <c r="FZ5" s="13"/>
-      <c r="GA5" s="13"/>
-      <c r="GB5" s="13"/>
-      <c r="GC5" s="13"/>
-      <c r="GD5" s="13"/>
-      <c r="GE5" s="13"/>
-      <c r="GF5" s="13"/>
-      <c r="GG5" s="13"/>
-      <c r="GH5" s="13"/>
+      <c r="FC5" s="17"/>
+      <c r="FD5" s="17"/>
+      <c r="FE5" s="17"/>
+      <c r="FF5" s="17"/>
+      <c r="FG5" s="17"/>
+      <c r="FH5" s="17"/>
+      <c r="FI5" s="17"/>
+      <c r="FJ5" s="17"/>
+      <c r="FK5" s="17"/>
+      <c r="FL5" s="17"/>
+      <c r="FM5" s="17"/>
+      <c r="FN5" s="17"/>
+      <c r="FO5" s="17"/>
+      <c r="FP5" s="17"/>
+      <c r="FQ5" s="17"/>
+      <c r="FR5" s="17"/>
+      <c r="FS5" s="17"/>
+      <c r="FT5" s="17"/>
+      <c r="FU5" s="17"/>
+      <c r="FV5" s="17"/>
+      <c r="FW5" s="17"/>
+      <c r="FX5" s="17"/>
+      <c r="FY5" s="17"/>
+      <c r="FZ5" s="17"/>
+      <c r="GA5" s="17"/>
+      <c r="GB5" s="17"/>
+      <c r="GC5" s="17"/>
+      <c r="GD5" s="17"/>
+      <c r="GE5" s="17"/>
+      <c r="GF5" s="17"/>
+      <c r="GG5" s="17"/>
+      <c r="GH5" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="GI5" s="13"/>
       <c r="GJ5" s="13"/>
       <c r="GK5" s="13"/>
@@ -2661,26 +2681,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20610" windowHeight="9915"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -249,15 +249,22 @@
     <t xml:space="preserve">
 2)Haloween Party</t>
   </si>
+  <si>
+    <t>HackerRank:
+1)Angry Children</t>
+  </si>
+  <si>
+    <t>2) Sherlock and The Beast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +296,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -443,6 +457,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,6 +559,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -567,6 +594,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,16 +770,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="GG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GH11" sqref="GH11"/>
+      <selection pane="topRight" activeCell="GI5" sqref="GI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="15" customWidth="1"/>
@@ -766,7 +794,7 @@
     <col min="248" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:247" s="5" customFormat="1">
+    <row r="1" spans="1:247" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1537,7 @@
         <v>41803</v>
       </c>
     </row>
-    <row r="2" spans="1:247" s="8" customFormat="1" ht="41.25" customHeight="1">
+    <row r="2" spans="1:247" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1762,9 +1790,11 @@
       <c r="GH2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="GI2" s="4"/>
-      <c r="GJ2" s="4"/>
-      <c r="GK2" s="4"/>
+      <c r="GI2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="GJ2" s="31"/>
+      <c r="GK2" s="31"/>
       <c r="GL2" s="4"/>
       <c r="GM2" s="4"/>
       <c r="GN2" s="4"/>
@@ -1820,7 +1850,7 @@
       <c r="IL2" s="4"/>
       <c r="IM2" s="4"/>
     </row>
-    <row r="3" spans="1:247" s="8" customFormat="1" ht="31.5" customHeight="1">
+    <row r="3" spans="1:247" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -2051,9 +2081,11 @@
       <c r="GH3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="GI3" s="4"/>
-      <c r="GJ3" s="4"/>
-      <c r="GK3" s="4"/>
+      <c r="GI3" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="GJ3" s="31"/>
+      <c r="GK3" s="31"/>
       <c r="GL3" s="4"/>
       <c r="GM3" s="4"/>
       <c r="GN3" s="4"/>
@@ -2109,7 +2141,7 @@
       <c r="IL3" s="4"/>
       <c r="IM3" s="4"/>
     </row>
-    <row r="4" spans="1:247" s="8" customFormat="1" ht="39.75" customHeight="1">
+    <row r="4" spans="1:247" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -2348,9 +2380,9 @@
       <c r="GH4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="GI4" s="4"/>
-      <c r="GJ4" s="4"/>
-      <c r="GK4" s="4"/>
+      <c r="GI4" s="31"/>
+      <c r="GJ4" s="31"/>
+      <c r="GK4" s="31"/>
       <c r="GL4" s="4"/>
       <c r="GM4" s="4"/>
       <c r="GN4" s="4"/>
@@ -2406,7 +2438,7 @@
       <c r="IL4" s="4"/>
       <c r="IM4" s="4"/>
     </row>
-    <row r="5" spans="1:247" s="12" customFormat="1">
+    <row r="5" spans="1:247" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
@@ -2616,9 +2648,9 @@
       <c r="GH5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="GI5" s="13"/>
-      <c r="GJ5" s="13"/>
-      <c r="GK5" s="13"/>
+      <c r="GI5" s="32"/>
+      <c r="GJ5" s="32"/>
+      <c r="GK5" s="32"/>
       <c r="GL5" s="13"/>
       <c r="GM5" s="13"/>
       <c r="GN5" s="13"/>
@@ -2681,26 +2713,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>2) Sherlock and The Beast</t>
+  </si>
+  <si>
+    <t>1)AngryChildren</t>
+  </si>
+  <si>
+    <t>2)Sherlock and the Beast</t>
+  </si>
+  <si>
+    <t>3)Maximizing Xor</t>
   </si>
 </sst>
 </file>
@@ -775,8 +784,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GI5" sqref="GI5"/>
+      <pane xSplit="1" topLeftCell="GJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GK9" sqref="GK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1804,9 @@
       </c>
       <c r="GJ2" s="31"/>
       <c r="GK2" s="31"/>
-      <c r="GL2" s="4"/>
+      <c r="GL2" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="GM2" s="4"/>
       <c r="GN2" s="4"/>
       <c r="GO2" s="4"/>
@@ -2086,7 +2097,9 @@
       </c>
       <c r="GJ3" s="31"/>
       <c r="GK3" s="31"/>
-      <c r="GL3" s="4"/>
+      <c r="GL3" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="GM3" s="4"/>
       <c r="GN3" s="4"/>
       <c r="GO3" s="4"/>
@@ -2383,7 +2396,9 @@
       <c r="GI4" s="31"/>
       <c r="GJ4" s="31"/>
       <c r="GK4" s="31"/>
-      <c r="GL4" s="4"/>
+      <c r="GL4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="GM4" s="4"/>
       <c r="GN4" s="4"/>
       <c r="GO4" s="4"/>
@@ -2651,7 +2666,7 @@
       <c r="GI5" s="32"/>
       <c r="GJ5" s="32"/>
       <c r="GK5" s="32"/>
-      <c r="GL5" s="13"/>
+      <c r="GL5" s="17"/>
       <c r="GM5" s="13"/>
       <c r="GN5" s="13"/>
       <c r="GO5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>3)Maximizing Xor</t>
+  </si>
+  <si>
+    <t>1)Find Digit</t>
+  </si>
+  <si>
+    <t>2)Find Point</t>
   </si>
 </sst>
 </file>
@@ -784,8 +790,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GK9" sqref="GK9"/>
+      <pane xSplit="1" topLeftCell="GK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GM4" sqref="GM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1813,9 @@
       <c r="GL2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="GM2" s="4"/>
+      <c r="GM2" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="GN2" s="4"/>
       <c r="GO2" s="4"/>
       <c r="GP2" s="4"/>
@@ -2100,7 +2108,9 @@
       <c r="GL3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="GM3" s="4"/>
+      <c r="GM3" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="GN3" s="4"/>
       <c r="GO3" s="4"/>
       <c r="GP3" s="4"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>2)Find Point</t>
+  </si>
+  <si>
+    <t>1)Encryption</t>
+  </si>
+  <si>
+    <t>HackerRank:</t>
+  </si>
+  <si>
+    <t>1)Sherlock and The Beast</t>
   </si>
 </sst>
 </file>
@@ -790,8 +799,8 @@
   <dimension ref="A1:IM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GM4" sqref="GM4"/>
+      <pane xSplit="1" topLeftCell="GV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GV4" sqref="GV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,8 +1834,12 @@
       <c r="GT2" s="4"/>
       <c r="GU2" s="4"/>
       <c r="GV2" s="4"/>
-      <c r="GW2" s="4"/>
-      <c r="GX2" s="4"/>
+      <c r="GW2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="GX2" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="GY2" s="4"/>
       <c r="GZ2" s="4"/>
       <c r="HA2" s="4"/>
@@ -2120,8 +2133,12 @@
       <c r="GT3" s="4"/>
       <c r="GU3" s="4"/>
       <c r="GV3" s="4"/>
-      <c r="GW3" s="4"/>
-      <c r="GX3" s="4"/>
+      <c r="GW3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="GX3" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="GY3" s="4"/>
       <c r="GZ3" s="4"/>
       <c r="HA3" s="4"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>1)Sherlock and The Beast</t>
+  </si>
+  <si>
+    <t>Hacker Rank-Functional Programming &gt;Introduction&gt;First Page-5 Probs From Down</t>
+  </si>
+  <si>
+    <t>GetAllUniqueNodes()-Interview Que(sterday)-Execute -Recursion</t>
+  </si>
+  <si>
+    <t>Reverse every 3 nodes-Execute -Recursion</t>
+  </si>
+  <si>
+    <t>Given a matrix with 1s and 0s, u have to construct a matrix such that a[i][j]=1, if only every element in ith row and jth column is 1, otherwise 0. You have to use constant space and O(mn) time complexity.</t>
+  </si>
+  <si>
+    <t>Given a BST, find the node which contains the value which is equal to (or lowest greater than) the input value.</t>
+  </si>
+  <si>
+    <t>All code should be in executable form-Review of this will happen On Tuesday</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -493,6 +511,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,11 +823,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IM5"/>
+  <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="GV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GV4" sqref="GV4"/>
+      <pane xSplit="1" topLeftCell="HM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HM9" sqref="HM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +841,9 @@
     <col min="10" max="39" width="50.7109375" style="19" customWidth="1"/>
     <col min="40" max="63" width="50.7109375" style="15" customWidth="1"/>
     <col min="64" max="64" width="49.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="65" max="247" width="50.7109375" style="15" customWidth="1"/>
+    <col min="65" max="220" width="50.7109375" style="15" customWidth="1"/>
+    <col min="221" max="221" width="50.7109375" style="37" customWidth="1"/>
+    <col min="222" max="247" width="50.7109375" style="15" customWidth="1"/>
     <col min="248" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
@@ -1479,7 +1508,7 @@
       <c r="HL1" s="25">
         <v>41776</v>
       </c>
-      <c r="HM1" s="25">
+      <c r="HM1" s="35">
         <v>41777</v>
       </c>
       <c r="HN1" s="25">
@@ -1854,7 +1883,9 @@
       <c r="HJ2" s="4"/>
       <c r="HK2" s="4"/>
       <c r="HL2" s="4"/>
-      <c r="HM2" s="4"/>
+      <c r="HM2" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="HN2" s="4"/>
       <c r="HO2" s="4"/>
       <c r="HP2" s="4"/>
@@ -2153,7 +2184,9 @@
       <c r="HJ3" s="4"/>
       <c r="HK3" s="4"/>
       <c r="HL3" s="4"/>
-      <c r="HM3" s="4"/>
+      <c r="HM3" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="HN3" s="4"/>
       <c r="HO3" s="4"/>
       <c r="HP3" s="4"/>
@@ -2452,7 +2485,9 @@
       <c r="HJ4" s="4"/>
       <c r="HK4" s="4"/>
       <c r="HL4" s="4"/>
-      <c r="HM4" s="4"/>
+      <c r="HM4" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="HN4" s="4"/>
       <c r="HO4" s="4"/>
       <c r="HP4" s="4"/>
@@ -2480,7 +2515,7 @@
       <c r="IL4" s="4"/>
       <c r="IM4" s="4"/>
     </row>
-    <row r="5" spans="1:247" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:247" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2755,9 @@
       <c r="HJ5" s="13"/>
       <c r="HK5" s="13"/>
       <c r="HL5" s="13"/>
-      <c r="HM5" s="13"/>
+      <c r="HM5" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="HN5" s="13"/>
       <c r="HO5" s="13"/>
       <c r="HP5" s="13"/>
@@ -2747,6 +2784,16 @@
       <c r="IK5" s="13"/>
       <c r="IL5" s="13"/>
       <c r="IM5" s="13"/>
+    </row>
+    <row r="6" spans="1:247" ht="45" x14ac:dyDescent="0.25">
+      <c r="HM6" s="36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:247" ht="30" x14ac:dyDescent="0.25">
+      <c r="HM8" s="37" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -827,7 +827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="HM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HM9" sqref="HM9"/>
+      <selection pane="topRight" activeCell="HN7" sqref="HN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2184,7 @@
       <c r="HJ3" s="4"/>
       <c r="HK3" s="4"/>
       <c r="HL3" s="4"/>
-      <c r="HM3" s="36" t="s">
+      <c r="HM3" s="22" t="s">
         <v>80</v>
       </c>
       <c r="HN3" s="4"/>
@@ -2485,7 +2485,7 @@
       <c r="HJ4" s="4"/>
       <c r="HK4" s="4"/>
       <c r="HL4" s="4"/>
-      <c r="HM4" s="36" t="s">
+      <c r="HM4" s="22" t="s">
         <v>81</v>
       </c>
       <c r="HN4" s="4"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>All code should be in executable form-Review of this will happen On Tuesday</t>
+  </si>
+  <si>
+    <t>Sarath Probs Review</t>
+  </si>
+  <si>
+    <t>0S-Lecture Notes 1,2</t>
+  </si>
+  <si>
+    <t>Assessments</t>
+  </si>
+  <si>
+    <t>Assignments</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -521,6 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,8 +839,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HN7" sqref="HN7"/>
+      <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HO4" sqref="HO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,7 +1900,9 @@
         <v>79</v>
       </c>
       <c r="HN2" s="4"/>
-      <c r="HO2" s="4"/>
+      <c r="HO2" s="38" t="s">
+        <v>85</v>
+      </c>
       <c r="HP2" s="4"/>
       <c r="HQ2" s="4"/>
       <c r="HR2" s="4"/>
@@ -2188,7 +2203,9 @@
         <v>80</v>
       </c>
       <c r="HN3" s="4"/>
-      <c r="HO3" s="4"/>
+      <c r="HO3" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="HP3" s="4"/>
       <c r="HQ3" s="4"/>
       <c r="HR3" s="4"/>
@@ -2489,7 +2506,9 @@
         <v>81</v>
       </c>
       <c r="HN4" s="4"/>
-      <c r="HO4" s="4"/>
+      <c r="HO4" s="38" t="s">
+        <v>87</v>
+      </c>
       <c r="HP4" s="4"/>
       <c r="HQ4" s="4"/>
       <c r="HR4" s="4"/>
@@ -2759,7 +2778,9 @@
         <v>82</v>
       </c>
       <c r="HN5" s="13"/>
-      <c r="HO5" s="13"/>
+      <c r="HO5" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="HP5" s="13"/>
       <c r="HQ5" s="13"/>
       <c r="HR5" s="13"/>

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -534,6 +534,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +843,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HO4" sqref="HO4"/>
+      <selection pane="topRight" activeCell="HB10" sqref="HB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,39 +1870,39 @@
       <c r="GM2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="GN2" s="4"/>
-      <c r="GO2" s="4"/>
-      <c r="GP2" s="4"/>
-      <c r="GQ2" s="4"/>
-      <c r="GR2" s="4"/>
-      <c r="GS2" s="4"/>
-      <c r="GT2" s="4"/>
-      <c r="GU2" s="4"/>
-      <c r="GV2" s="4"/>
+      <c r="GN2" s="2"/>
+      <c r="GO2" s="2"/>
+      <c r="GP2" s="2"/>
+      <c r="GQ2" s="2"/>
+      <c r="GR2" s="2"/>
+      <c r="GS2" s="2"/>
+      <c r="GT2" s="2"/>
+      <c r="GU2" s="2"/>
+      <c r="GV2" s="2"/>
       <c r="GW2" s="3" t="s">
         <v>77</v>
       </c>
       <c r="GX2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="GY2" s="4"/>
-      <c r="GZ2" s="4"/>
-      <c r="HA2" s="4"/>
-      <c r="HB2" s="4"/>
-      <c r="HC2" s="4"/>
-      <c r="HD2" s="4"/>
-      <c r="HE2" s="4"/>
-      <c r="HF2" s="4"/>
-      <c r="HG2" s="4"/>
-      <c r="HH2" s="4"/>
-      <c r="HI2" s="4"/>
-      <c r="HJ2" s="4"/>
-      <c r="HK2" s="4"/>
-      <c r="HL2" s="4"/>
+      <c r="GY2" s="2"/>
+      <c r="GZ2" s="2"/>
+      <c r="HA2" s="2"/>
+      <c r="HB2" s="2"/>
+      <c r="HC2" s="2"/>
+      <c r="HD2" s="2"/>
+      <c r="HE2" s="2"/>
+      <c r="HF2" s="2"/>
+      <c r="HG2" s="2"/>
+      <c r="HH2" s="2"/>
+      <c r="HI2" s="2"/>
+      <c r="HJ2" s="2"/>
+      <c r="HK2" s="2"/>
+      <c r="HL2" s="2"/>
       <c r="HM2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="HN2" s="4"/>
+      <c r="HN2" s="2"/>
       <c r="HO2" s="38" t="s">
         <v>85</v>
       </c>
@@ -2170,39 +2173,39 @@
       <c r="GM3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="GN3" s="4"/>
-      <c r="GO3" s="4"/>
-      <c r="GP3" s="4"/>
-      <c r="GQ3" s="4"/>
-      <c r="GR3" s="4"/>
-      <c r="GS3" s="4"/>
-      <c r="GT3" s="4"/>
-      <c r="GU3" s="4"/>
-      <c r="GV3" s="4"/>
+      <c r="GN3" s="2"/>
+      <c r="GO3" s="2"/>
+      <c r="GP3" s="2"/>
+      <c r="GQ3" s="2"/>
+      <c r="GR3" s="2"/>
+      <c r="GS3" s="2"/>
+      <c r="GT3" s="2"/>
+      <c r="GU3" s="2"/>
+      <c r="GV3" s="2"/>
       <c r="GW3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="GX3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="GY3" s="4"/>
-      <c r="GZ3" s="4"/>
-      <c r="HA3" s="4"/>
-      <c r="HB3" s="4"/>
-      <c r="HC3" s="4"/>
-      <c r="HD3" s="4"/>
-      <c r="HE3" s="4"/>
-      <c r="HF3" s="4"/>
-      <c r="HG3" s="4"/>
-      <c r="HH3" s="4"/>
-      <c r="HI3" s="4"/>
-      <c r="HJ3" s="4"/>
-      <c r="HK3" s="4"/>
-      <c r="HL3" s="4"/>
+      <c r="GY3" s="2"/>
+      <c r="GZ3" s="2"/>
+      <c r="HA3" s="2"/>
+      <c r="HB3" s="2"/>
+      <c r="HC3" s="2"/>
+      <c r="HD3" s="2"/>
+      <c r="HE3" s="2"/>
+      <c r="HF3" s="2"/>
+      <c r="HG3" s="2"/>
+      <c r="HH3" s="2"/>
+      <c r="HI3" s="2"/>
+      <c r="HJ3" s="2"/>
+      <c r="HK3" s="2"/>
+      <c r="HL3" s="2"/>
       <c r="HM3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="HN3" s="4"/>
+      <c r="HN3" s="2"/>
       <c r="HO3" s="38" t="s">
         <v>86</v>
       </c>
@@ -2477,35 +2480,35 @@
         <v>73</v>
       </c>
       <c r="GM4" s="4"/>
-      <c r="GN4" s="4"/>
-      <c r="GO4" s="4"/>
-      <c r="GP4" s="4"/>
-      <c r="GQ4" s="4"/>
-      <c r="GR4" s="4"/>
-      <c r="GS4" s="4"/>
-      <c r="GT4" s="4"/>
-      <c r="GU4" s="4"/>
-      <c r="GV4" s="4"/>
+      <c r="GN4" s="2"/>
+      <c r="GO4" s="2"/>
+      <c r="GP4" s="2"/>
+      <c r="GQ4" s="2"/>
+      <c r="GR4" s="2"/>
+      <c r="GS4" s="2"/>
+      <c r="GT4" s="2"/>
+      <c r="GU4" s="2"/>
+      <c r="GV4" s="2"/>
       <c r="GW4" s="4"/>
       <c r="GX4" s="4"/>
-      <c r="GY4" s="4"/>
-      <c r="GZ4" s="4"/>
-      <c r="HA4" s="4"/>
-      <c r="HB4" s="4"/>
-      <c r="HC4" s="4"/>
-      <c r="HD4" s="4"/>
-      <c r="HE4" s="4"/>
-      <c r="HF4" s="4"/>
-      <c r="HG4" s="4"/>
-      <c r="HH4" s="4"/>
-      <c r="HI4" s="4"/>
-      <c r="HJ4" s="4"/>
-      <c r="HK4" s="4"/>
-      <c r="HL4" s="4"/>
+      <c r="GY4" s="2"/>
+      <c r="GZ4" s="2"/>
+      <c r="HA4" s="2"/>
+      <c r="HB4" s="2"/>
+      <c r="HC4" s="2"/>
+      <c r="HD4" s="2"/>
+      <c r="HE4" s="2"/>
+      <c r="HF4" s="2"/>
+      <c r="HG4" s="2"/>
+      <c r="HH4" s="2"/>
+      <c r="HI4" s="2"/>
+      <c r="HJ4" s="2"/>
+      <c r="HK4" s="2"/>
+      <c r="HL4" s="2"/>
       <c r="HM4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="HN4" s="4"/>
+      <c r="HN4" s="2"/>
       <c r="HO4" s="38" t="s">
         <v>87</v>
       </c>
@@ -2749,35 +2752,35 @@
       <c r="GK5" s="32"/>
       <c r="GL5" s="17"/>
       <c r="GM5" s="13"/>
-      <c r="GN5" s="13"/>
-      <c r="GO5" s="13"/>
-      <c r="GP5" s="13"/>
-      <c r="GQ5" s="13"/>
-      <c r="GR5" s="13"/>
-      <c r="GS5" s="13"/>
-      <c r="GT5" s="13"/>
-      <c r="GU5" s="13"/>
-      <c r="GV5" s="13"/>
+      <c r="GN5" s="17"/>
+      <c r="GO5" s="17"/>
+      <c r="GP5" s="17"/>
+      <c r="GQ5" s="17"/>
+      <c r="GR5" s="17"/>
+      <c r="GS5" s="17"/>
+      <c r="GT5" s="17"/>
+      <c r="GU5" s="17"/>
+      <c r="GV5" s="17"/>
       <c r="GW5" s="13"/>
       <c r="GX5" s="13"/>
-      <c r="GY5" s="13"/>
-      <c r="GZ5" s="13"/>
-      <c r="HA5" s="13"/>
-      <c r="HB5" s="13"/>
-      <c r="HC5" s="13"/>
-      <c r="HD5" s="13"/>
-      <c r="HE5" s="13"/>
-      <c r="HF5" s="13"/>
-      <c r="HG5" s="13"/>
-      <c r="HH5" s="13"/>
-      <c r="HI5" s="13"/>
-      <c r="HJ5" s="13"/>
-      <c r="HK5" s="13"/>
-      <c r="HL5" s="13"/>
+      <c r="GY5" s="17"/>
+      <c r="GZ5" s="17"/>
+      <c r="HA5" s="17"/>
+      <c r="HB5" s="17"/>
+      <c r="HC5" s="17"/>
+      <c r="HD5" s="17"/>
+      <c r="HE5" s="17"/>
+      <c r="HF5" s="17"/>
+      <c r="HG5" s="17"/>
+      <c r="HH5" s="17"/>
+      <c r="HI5" s="17"/>
+      <c r="HJ5" s="17"/>
+      <c r="HK5" s="17"/>
+      <c r="HL5" s="17"/>
       <c r="HM5" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="HN5" s="13"/>
+      <c r="HN5" s="17"/>
       <c r="HO5" s="38" t="s">
         <v>88</v>
       </c>
@@ -2807,9 +2810,24 @@
       <c r="IM5" s="13"/>
     </row>
     <row r="6" spans="1:247" ht="45" x14ac:dyDescent="0.25">
+      <c r="GY6" s="39"/>
+      <c r="GZ6" s="39"/>
+      <c r="HA6" s="39"/>
+      <c r="HB6" s="39"/>
+      <c r="HC6" s="39"/>
+      <c r="HD6" s="39"/>
+      <c r="HE6" s="39"/>
+      <c r="HF6" s="39"/>
+      <c r="HG6" s="39"/>
+      <c r="HH6" s="39"/>
+      <c r="HI6" s="39"/>
+      <c r="HJ6" s="39"/>
+      <c r="HK6" s="39"/>
+      <c r="HL6" s="39"/>
       <c r="HM6" s="36" t="s">
         <v>83</v>
       </c>
+      <c r="HN6" s="39"/>
     </row>
     <row r="8" spans="1:247" ht="30" x14ac:dyDescent="0.25">
       <c r="HM8" s="37" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20610" windowHeight="9915"/>
+    <workbookView xWindow="240" yWindow="300" windowWidth="20610" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="My Track Till 13-Jun-2014" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Assignments</t>
+  </si>
+  <si>
+    <t>Probability-Bday prob-issue</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -533,8 +542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,7 +856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HB10" sqref="HB10"/>
+      <selection pane="topRight" activeCell="HO5" sqref="HO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1916,7 @@
         <v>79</v>
       </c>
       <c r="HN2" s="2"/>
-      <c r="HO2" s="38" t="s">
+      <c r="HO2" s="39" t="s">
         <v>85</v>
       </c>
       <c r="HP2" s="4"/>
@@ -2206,7 +2219,7 @@
         <v>80</v>
       </c>
       <c r="HN3" s="2"/>
-      <c r="HO3" s="38" t="s">
+      <c r="HO3" s="39" t="s">
         <v>86</v>
       </c>
       <c r="HP3" s="4"/>
@@ -2509,7 +2522,7 @@
         <v>81</v>
       </c>
       <c r="HN4" s="2"/>
-      <c r="HO4" s="38" t="s">
+      <c r="HO4" s="39" t="s">
         <v>87</v>
       </c>
       <c r="HP4" s="4"/>
@@ -2781,7 +2794,7 @@
         <v>82</v>
       </c>
       <c r="HN5" s="17"/>
-      <c r="HO5" s="38" t="s">
+      <c r="HO5" s="40" t="s">
         <v>88</v>
       </c>
       <c r="HP5" s="13"/>
@@ -2810,24 +2823,27 @@
       <c r="IM5" s="13"/>
     </row>
     <row r="6" spans="1:247" ht="45" x14ac:dyDescent="0.25">
-      <c r="GY6" s="39"/>
-      <c r="GZ6" s="39"/>
-      <c r="HA6" s="39"/>
-      <c r="HB6" s="39"/>
-      <c r="HC6" s="39"/>
-      <c r="HD6" s="39"/>
-      <c r="HE6" s="39"/>
-      <c r="HF6" s="39"/>
-      <c r="HG6" s="39"/>
-      <c r="HH6" s="39"/>
-      <c r="HI6" s="39"/>
-      <c r="HJ6" s="39"/>
-      <c r="HK6" s="39"/>
-      <c r="HL6" s="39"/>
+      <c r="GY6" s="38"/>
+      <c r="GZ6" s="38"/>
+      <c r="HA6" s="38"/>
+      <c r="HB6" s="38"/>
+      <c r="HC6" s="38"/>
+      <c r="HD6" s="38"/>
+      <c r="HE6" s="38"/>
+      <c r="HF6" s="38"/>
+      <c r="HG6" s="38"/>
+      <c r="HH6" s="38"/>
+      <c r="HI6" s="38"/>
+      <c r="HJ6" s="38"/>
+      <c r="HK6" s="38"/>
+      <c r="HL6" s="38"/>
       <c r="HM6" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="HN6" s="39"/>
+      <c r="HN6" s="38"/>
+      <c r="HO6" s="41" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:247" ht="30" x14ac:dyDescent="0.25">
       <c r="HM8" s="37" t="s">

--- a/Track Of Sarath.xlsx
+++ b/Track Of Sarath.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>Things Done \ Date</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Probability-Bday prob-issue</t>
+  </si>
+  <si>
+    <t>Sarath Review</t>
+  </si>
+  <si>
+    <t>Pending H.W</t>
+  </si>
+  <si>
+    <t>Lowest Greater</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -548,6 +557,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,8 +867,8 @@
   <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HO5" sqref="HO5"/>
+      <pane xSplit="1" topLeftCell="HP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HP7" sqref="HP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +1931,9 @@
       <c r="HO2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="HP2" s="4"/>
+      <c r="HP2" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="HQ2" s="4"/>
       <c r="HR2" s="4"/>
       <c r="HS2" s="4"/>
@@ -2222,7 +2236,9 @@
       <c r="HO3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="HP3" s="4"/>
+      <c r="HP3" s="42" t="s">
+        <v>90</v>
+      </c>
       <c r="HQ3" s="4"/>
       <c r="HR3" s="4"/>
       <c r="HS3" s="4"/>
@@ -2525,7 +2541,9 @@
       <c r="HO4" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="HP4" s="4"/>
+      <c r="HP4" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="HQ4" s="4"/>
       <c r="HR4" s="4"/>
       <c r="HS4" s="4"/>
@@ -2797,7 +2815,9 @@
       <c r="HO5" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="HP5" s="13"/>
+      <c r="HP5" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="HQ5" s="13"/>
       <c r="HR5" s="13"/>
       <c r="HS5" s="13"/>
